--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PostfixString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,19 +50,413 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Replace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FuelCapacity="200"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="600"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改油量</t>
+    <t>Country="RU"</t>
+  </si>
+  <si>
+    <t>Country=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消國家限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\**\*.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country="US"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全域屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngelSoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_templates\trucks.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;Average RadiusOffset="0.025" SoftForceScale="0.24" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Offroad\n\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="0.8"
+\t\t\tSubstanceFriction="1.5"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Offroad\n\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="4.0"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Mudtires
+\t\t\tBodyFriction="2.0"
+\t\t\tBodyFrictionAsphalt="0.5"
+\t\t\tSubstanceFriction="2.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Mudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="5.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;HeavyMudtires
+\t\t\tBodyFriction="1.7"
+\t\t\tBodyFrictionAsphalt="0.5"
+\t\t\tSubstanceFriction="3.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;HeavyMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="5.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Chains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.2"
+\t\t\tIsIgnoreIce="true"
+\t\t\tSubstanceFriction="1.3"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Chains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="5.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_us_truck_old_gmc9500.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_us_truck_old_gmc9500.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_TRUCK_OLD_GMC9500_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_us_truck_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_TRUCK_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_us_truck_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_us_truck_old_heavy.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_us_truck_old_heavy.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_TRUCK_OLD_HEAVY_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_us_special.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_us_special.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_SPECIAL_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_us_scout_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_us_scout_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Engine
+\t\t_template="USScoutModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="140"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tFuelConsumption="1.3"
+\t\tName="us_scout_modern_engine_3"
+\t\tTorque="120000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t\tMaxDeltaAngVel="0.01"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6600"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_ENGINE_US_SCOUT_MODERN_2_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_tuz_tatarin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_tuz_tatarin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_RU_TUZ_TATARIN_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_RU_TRUCK_OLD_HEAVY_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_truck_old_heavy.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_truck_old_heavy.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_RU_TRUCK_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_truck_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_truck_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_special.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_special.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_RU_SPECIAL_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_scout_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_scout_modern.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_RU_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockByExploration="false"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockByExploration="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消探索才能使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offroad Wheel 抓地力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mudtires 抓地力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavyMudtires 抓地力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chains 抓地力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\wheels\wheels_scout_btr.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_OFFROAD_DESC" UiName="UI_TIRE_SCOUT_BTR_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;TruckRim Mesh="wheels/rim_scout_btr_1" Name="rim_1"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_SCOUT_BTR_1_DESC" UiName="UI_RIM_SCOUT_BTR_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_scout_btr.xml : truck tire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_scout_btr.xml : truck rim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\wheels\wheels_heavy_mudtires_tayga.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_heavy_mudtires_tayga.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_HEAVY_MUDTIRES_SINGLE_TAYGA_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_SCOUT_MUDTIRES_YAR_87_2_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\wheels\wheels_scout_yar_871.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_scout_yar_871.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_HEAVY_CHAINS_SINGLE_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,72 +464,816 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加輪胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefixString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_4_cat745" Name="mudtires_cat745"&gt;
-\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="0.7"/&gt;
+    <t>wheels_superheavy_single.xml : truck tire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_superheavy_single.xml : truck rim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;TruckRim Mesh="wheels/rim_superheavy_mudtires_3" Name="rim_3"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_SUPERHEAVY_MUDTIRES_3_DESC" UiName="UI_RIM_SUPERHEAVY_MUDTIRES_3_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_SCOUT_CHAIN_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\wheels\wheels_scout2.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_scout2.xml</t>
+  </si>
+  <si>
+    <t>winches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\winches\winches_scouts.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winches_scouts.xml</t>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_WINCH_UPGRADE_SCOUT_OFFLINE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Winch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckOldEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="240"
+\t\tDamagedConsumptionModifier="1.9"
+\t\tFuelConsumption="1.5"
+\t\tName="us_truck_old_engine_gmc9500"
+\t\tTorque="280000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="12700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="GMC9500 Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_TRUCK_OLD_GMC9500S_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="220"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tEngineResponsiveness="0.3"
+\t\tFuelConsumption="1.5"
+\t\tName="us_truck_modern_engine_super"
+\t\tTorque="620000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="30000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Modern Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckOldHeavyEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="280"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tEngineResponsiveness="0.2"
+\t\tFuelConsumption="2.0"
+\t\tName="us_super_truck_old_heavy_engine"
+\t\tTorque="420000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="100000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Truck Old Heavy Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_SUPER_TRUCK_OLD_HEAVY_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USSpecialEngine"
+\t\tCriticalDamageThreshold="0.5"
+\t\tDamageCapacity="280"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="us_special_engine_super"
+\t\tTorque="500000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="55500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Special Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_S_S_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USScoutModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="140"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tFuelConsumption="0.3"
+\t\tName="us_scout_modern_engine_super"
+\t\tTorque="160000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t\tMaxDeltaAngVel="0.01"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="16600"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.99"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tEngineResponsiveness="0.2"
+\t\tFuelConsumption="1.0"
+\t\tName="ru_tuz_super_tatarin"
+\t\tTorque="400000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="1.0"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="55500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="TUZ Super Tatarin Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="TUZ_SUPER_TATARIN_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUTruckOldHeavyEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_super_truck_old_heavy_engine"
+\t\tTorque="300000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="145000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Truck Old Heavy Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_SUPER_TRUCK_OLD_HEAVY_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUTruckModernEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="250"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_modern_engine_super"
+\t\tTorque="420000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="20000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Modern Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;
+\t&lt;Engine
+\t\t_template="RUTruckModernEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="250"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_modern_engine_super2"
+\t\tTorque="620000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="30000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Modern Truck Engine 2"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_special_engine_super"
+\t\tTorque="520000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="40000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Special Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;
+\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_special_engine_super_2"
+\t\tTorque="920000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="50000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Special Truck Engine 2"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE_2"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUScoutModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="170"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tEngineResponsiveness="0.45"
+\t\tFuelConsumption="0.5"
+\t\tName="ru_scout_modern_engine_super"
+\t\tTorque="150000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t\tMaxDeltaAngVel="0.01"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="16600"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_RU_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
 \t\t\t&lt;GameData
-\t\t\t\tPrice="7500"
+\t\t\t\tPrice="7400"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel" UiName="SCOUT_BTR_ANGEL" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel_ice"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="7400"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel Ice" UiName="SCOUT_BTR_ANGEL_ICE" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckRim Mesh="wheels/rim_heavy_mudtires_single_tayga_1" Name="rim_2"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_HEAVY_MUDTIRES_SINGLE_TAYGA_1_DESC" UiName="UI_RIM_HEAVY_MUDTIRES_SINGLE_TAYGA_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_tires"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
 \t\t\t\tUnlockByExploration="false"
 \t\t\t\tUnlockByRank="1"
 \t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_SUPERHEAVY_MUDTIRES_4_NAME" /&gt;
+\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F5" UiName="YAR_87_ANGEL_TIRES_5" /&gt;
 \t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_4_cat745" Name="mudtires_cat745_1"&gt;
-\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="5.7"/&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_ice_tires"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="4.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
 \t\t\t&lt;GameData
-\t\t\t\tPrice="17500"
+\t\t\t\tPrice="12000"
 \t\t\t\tUnlockByExploration="false"
 \t\t\t\tUnlockByRank="1"
 \t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_SUPERHEAVY_MUDTIRES_4_NAME" /&gt;
+\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F8" UiName="YAR_87_ANGEL_TIRES_8" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\ank_mk38.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Country="RU"</t>
-  </si>
-  <si>
-    <t>Country=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消國家限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\**\*.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Country="US"</t>
+    <t>\n\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Mudtires Tayga F5.0" UiName="ANGEL_MUDTIRES_TAYGA" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Mudtires Tayga F8.0" UiName="ANGEL_2_MUDTIRES_TAYGA" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Mudtires F5.0" UiName="ANGEL_SUPERHEAVY_MUDTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_2_SUPERHEAVY_MUDTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_apache_chain_1" Name="chaintires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="10"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Chaintires F5.0" UiName="ANGEL_SUPERHEAVY_CHAINTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckRim Mesh="wheels/rim_heavy_offroad_single_1" Name="rim_4"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_HEAVY_OFFROAD_SINGLE_1_DESC" UiName="UI_RIM_HEAVY_OFFROAD_SINGLE_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;
+\t\t&lt;TruckRim Mesh="wheels/rim_heavy_offroad_single_2" Name="rim_5"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_HEAVY_OFFROAD_SINGLE_2_DESC" UiName="UI_RIM_HEAVY_OFFROAD_SINGLE_2_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;
+\t\t&lt;TruckRim Mesh="wheels/rim_scout_apache_1" Name="rim_6"&gt;
+\t\t\t&lt;GameData&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_RIM_SCOUT_APACHE_1_DESC" UiName="UI_RIM_SCOUT_APACHE_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckRim&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="ScoutChains" Mesh="wheels/tire_scout_mudtires_1" Name="mudtires_super" Width="0.797"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="15100"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="7"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Tires" UiName="UI_TIRE_SCOUT_MUDTIRES_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Winch
+\t\tName="w_scout_offline_2"
+\t\tLength="90"
+\t\tStrengthMult="9"
+\t\tIsEngineIgnitionRequired="false"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="1"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;WinchParams/&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="Angel offline winch with excellent length and strength"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="Angel winch"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Winch&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_tuz_420_tatarin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_tuz_420_tatarin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_DEFAULT_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.8"
+\t\tDamageCapacity="400"
+\t\tName="tuz_16_actaeon_suspension_jbe_active"
+\t\tDeviationDelta=".003"
+\t&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.45"
+\t\t\tBrokenSuspensionMax="0.2" 
+\t\t\tHeight="0.35" 
+\t\t\tStrength="0.045" 
+\t\t\tSuspensionMin="-0.5"
+\t\t\tDeviationMax="0.3" 
+\t\t\tWheelType="front" 
+\t\t/&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.45"
+\t\t\tBrokenSuspensionMax="0.2" 
+\t\t\tHeight="0.35" 
+\t\t\tStrength="0.045" 
+\t\t\tSuspensionMin="-0.5"
+\t\t\tDeviationMax="0.3" 
+\t\t\tWheelType="rear" 
+\t\t/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="Active Suspension 1"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_kolob_74760.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_kolob_74760.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_ACTIVE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="kolob_74760_74941_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.022" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="KOLOB_74941_ACTIVE_SUSPENSION"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="High"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="120"
+\t\tName="khan_39_marshall_suspension_high_2"
+\t&gt;
+\t\t&lt;Suspension
+\t\t\tBrokenSuspensionMax="0.50"
+\t\t\tHeight="0.40"
+\t\t\tStrength="0.015"
+\t\t\tSuspensionMin="-0.58"
+\t\t\tSuspensionMax="2.0"
+\t\t\tWheelType="front"
+\t\t\tDamping=".15"
+\t\t/&gt;
+\t\t&lt;Suspension
+\t\t\tBrokenSuspensionMax="0.50"
+\t\t\tHeight="0.40"
+\t\t\tStrength="0.01"
+\t\t\tSuspensionMin="-0.58"
+\t\t\tSuspensionMax="2.0"
+\t\t\tWheelType="rear"
+\t\t\tDamping=".15"
+\t\t/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="1"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_HIGH_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_HIGH_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_khan_39_marshall.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_khan_39_marshall.xml</t>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="High"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="azov_64131_suspension_high"
+\t&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.35" Strength="0.06" WheelType="front" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.43" Strength="0.08" WheelType="rear" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="5700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_HIGH_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_HIGH_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_azov_64131.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_azov_64131.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_DEFAULT_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="High"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="300"
+\t\tName="azov_5319_suspension_high"
+\t&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.15" Strength="0.06" WheelType="front" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.23" Strength="0.08" WheelType="rear" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_HIGH_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_HIGH_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_azov_5319.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_azov_5319.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_azov_4220_antarctic.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_DEFAULT_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="220"
+\t\tName="azov_4220_antarctic_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Damping="0.08" Height="0.25" Strength="0.05" WheelType="front" BrokenSuspensionMax="1" SuspensionMin="-0.3" SuspensionMax="0.3" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Damping="0.2" Height="0.15" Strength="0.6" WheelType="rear" BrokenSuspensionMax="1" SuspensionMin="-0.3" SuspensionMax="0.3" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_ACTIVE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_azov_4220_antarctic.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +1281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,13 +1303,32 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,11 +1345,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,121 +1641,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="G31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
+      <c r="G33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="301">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,6 +1276,839 @@
     <t>s_azov_4220_antarctic.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>chevrolet_ck1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\chevrolet_ck1500.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="160"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Uninstalled"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Always"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmc_9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\gmc_9500.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\gmc_9500.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="240"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="480"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="None"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuz_420_tatarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\tuz_420_tatarin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\t_template="FirstAxle"
+\t\t\tSteeringAngle="24"
+\t\t\tSteeringCastor="4"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="32"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.3"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\t_template="FirstAxle"
+\t\t\tSteeringAngle="20"
+\t\t\tSteeringCastor="0"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t\tSteeringAngle="-20"
+\t\t\tSteeringCastor="0"
+\t\t/&gt;
+\t\t&lt;RearAxleLast
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t\tSteeringAngle="-35"
+\t\t\tSteeringCastor="0"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="35"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.3"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="300"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="600"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.6" Type="wheels_scout_btr" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.2" RearOffsetZ="0.2" Scale="0.625" Type="wheels_scout_btr" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;Intake Dir="(0.951; 0.168; -0.259)" Origin="(-2.806; 1.55; -1.338)" Size="0.5" /&gt;
+\t\t&lt;Intake Dir="(0.951; 0.168; 0.259)" Origin="(-2.806; 1.55; 1.338)" Size="0.5" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;Intake Dir="(0.951; 999; -0.259)" Origin="(-2.806; 999; -1.338)" Size="0.5" /&gt;
+\t\t&lt;Intake Dir="(0.951; 999; 0.259)" Origin="(-2.806; 999; 1.338)" Size="0.5" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加輪胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高進氣口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加油箱大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差速器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改變轉向系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData WheelRepairsCapacity="1" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData WheelRepairsCapacity="1" RepairsCapacity="450"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData WheelRepairsCapacity="2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData WheelRepairsCapacity="2" RepairsCapacity="450"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將備胎1增加修理箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將備胎2增加修理箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kolob_74941</t>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\kolob_74941.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="900"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Installed"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kolob_74760</t>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\kolob_74760.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="380"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.745" Type="wheels_superheavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale="0.81" OffsetZ="0.05" RearOffsetZ="0.05" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="SaddleHigh1" Offset="(-1.95; 1.65; -0)" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="SaddleHigh1" Offset="(-1.95; 1.65; -0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddon" Offset="(-2.5; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-2.7; 1.75; 0)" ParentFrame="BoneChassis_cdt"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t\t&lt;Socket Names="FrameAddonTank" Offset="(-3.3; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="BigCraneUsKolob" Offset="(-3.3; 1.75; 0)" /&gt;
+\t\t\t&lt;Socket Names="BigCraneRuKolob" Offset="(-3.5; 1.75; 0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonMaintainer" NamesBlock="Trailer, MinicraneUS" Offset="(-3.1; 0.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonSeismicVibrator" Offset="(0.0; 1.75; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加後配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voron_ae4380</t>
+  </si>
+  <si>
+    <t>zikz_5368</t>
+  </si>
+  <si>
+    <t>ank_mk38</t>
+  </si>
+  <si>
+    <t>ws_6900xd_twin</t>
+  </si>
+  <si>
+    <t>yar_87</t>
+  </si>
+  <si>
+    <t>tayga_6436</t>
+  </si>
+  <si>
+    <t>pacific_p12w</t>
+  </si>
+  <si>
+    <t>khan_lo4f</t>
+  </si>
+  <si>
+    <t>khan_39_marshall</t>
+  </si>
+  <si>
+    <t>hummer_h2</t>
+  </si>
+  <si>
+    <t>azov_73210</t>
+  </si>
+  <si>
+    <t>azov_64131</t>
+  </si>
+  <si>
+    <t>azov_5319</t>
+  </si>
+  <si>
+    <t>azov_4220_antarctic</t>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\kolob_74760.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="250"</t>
+  </si>
+  <si>
+    <t>FuelCapacity="500"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\voron_ae4380.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="-0.03" Scale="0.63" Type="wheels_heavy_single2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\zikz_5368.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="190"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="380"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="200"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\ank_mk38.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_medium_mudtires_ankmk38" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\ws_6900xd_twin.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="360"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="720"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="-0.01" Scale="0.7" Type="wheels_heavy_double2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" RearOffsetZ="0.15" Scale="0.79" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\yar_87.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="110"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="220"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="0.02" Scale="0.62" Type="wheels_scout_yar_87" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.65" Type="wheels_scout_yar_871" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.63" Type="wheels_scout_btr" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="330"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="660"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\tayga_6436.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="350"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="700"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="-0.1" Scale="0.73" Type="wheels_heavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.76" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.76" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="Tuz420TatarinHorn" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="ScautTrailer" Offset="(-3.56; 1.43; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加 Scaut Trailer 掛點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="160"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\khan_lo4f.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\khan_39_marshall.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="40"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="160"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\hummer_h2.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\azov_73210.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.63" Type="wheels_heavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\azov_64131.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="20"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t\t&lt;MiddleAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="30"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="25"
+\t\t\tSteeringCastor="10"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t\t&lt;MiddleAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="35"
+\t\t\tSteeringCastor="10"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加轉向角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.6" Type="wheels_heavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="30"
+\t\t\tSteeringCastor="10"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t\t&lt;MiddleAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="45"
+\t\t\tSteeringCastor="10"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\azov_5319.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="900"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.63" Type="wheels_heavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;Camera Center="(-1.5; 0; 0)" ParentFrame="BoneCabin_cdt"&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\azov_4220_antarctic.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="700"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale=".9" Type="wheels_superheavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\azov_73210_tuning\azov_73210_conditioner.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;PhysicsModel Mesh="trucks/azov_73210_tuning/azov_73210_conditioner" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;TruckData RepairsCapacity="450"/&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修理箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scout_trailer_radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_1\classes\trucks\trailers\scout_trailer_radar.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData FuelCapacity="120"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TruckData FuelCapacity="1200"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_1\classes\trucks\ford_f750.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ford_f750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="140"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="300"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.52" Type="wheels_ford_f750" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale="0.57" Type="wheels_ford_f750" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="Trailer" Offset="(-3.89; 0.776; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="ScautTrailer" Offset="(-3.89; 0.776; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paystar_5600ts</t>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\paystar_5600ts.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="280"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="600"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zikz_605r</t>
+  </si>
+  <si>
+    <t>tatra_t813</t>
+  </si>
+  <si>
+    <t>khan_317_sentinel</t>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\</t>
+  </si>
+  <si>
+    <t>FuelCapacity="380"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="760"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\zikz_605r.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale="0.78" Type="wheels_zikz_605r_1" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.78" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\t_template="FirstAxle"
+\t\t\tSteeringAngle="18"
+\t\t\tSteeringCastor="4"
+\t\t\tSteeringJointOffset="0.3"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="5"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="9"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="24"
+\t\t\tSteeringCastor="12"
+\t\t\tSteeringJointOffset="0.3"
+\t\t\tTorque="full"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Wheel&gt;
+  &lt;SecondAxle
+   _template="FirstAxle"
+   SteeringAngle="30"
+   SteeringCastor="4"
+   SteeringJointOffset="0.3"
+  /&gt;
+  &lt;RearAxle
+   CamberAnglePhysics="0"
+   CamberAngleRender="-3"
+   CamberSuspensionMultiplier="1.8"
+   ConnectedToHandbrake="true"
+   Location="rear"
+   Torque="default"
+  /&gt;
+  &lt;FirstAxle
+   CamberAnglePhysics="0"
+   CamberAngleRender="-4.5"
+   CamberSuspensionMultiplier="1.8"
+   Location="front"
+   SteeringAngle="45"
+   SteeringCastor="12"
+   SteeringJointOffset="0.3"
+   Torque="full"
+  /&gt;
+ &lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\tatra_t813.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1311,7 +2144,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +2163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1345,7 +2184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,6 +2198,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1641,11 +2483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1745,58 +2587,64 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>66</v>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1807,13 +2655,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1824,414 +2672,414 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2240,52 +3088,46 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -2294,73 +3136,1396 @@
         <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="363">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1426,10 +1422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加輪胎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,10 +1439,6 @@
   </si>
   <si>
     <t>改變轉向系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2001,21 +1989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>paystar_5600ts</t>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\paystar_5600ts.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="280"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="600"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zikz_605r</t>
   </si>
   <si>
@@ -2023,9 +1996,6 @@
   </si>
   <si>
     <t>khan_317_sentinel</t>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\</t>
   </si>
   <si>
     <t>FuelCapacity="380"</t>
@@ -2109,12 +2079,749 @@
     <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\tatra_t813.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_ULTIMATE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Ultimate"
+\t\tDamageCapacity="75"
+\t\tName="ford_f750_suspension_crawler"
+\t&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.37" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="front" 
+\t\t\tBrokenSuspensionMax="0.15" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t/&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.37" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="rear" 
+\t\t\tBrokenSuspensionMax="0.15" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t\t/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_CRAWLER_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_CRAWLER_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加 Scaut Trailer 掛點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Suspension</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_1\classes\suspensions\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>s_ford_f750.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_SCOUT_OLD_F750_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USScoutOldEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="100"
+\t\tDamagedConsumptionModifier="2.5"
+\t\tFuelConsumption="1.5"
+\t\tName="us_scout_old_engine_f750_super"
+\t\tTorque="240000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t\tMaxDeltaAngVel="0.015"
+\t\tEngineResponsiveness="0.5"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="18500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Scout Old Engine f750 Super"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_SCOUT_OLD_F750_NAME_SUPER"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_1\classes\engines\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e_us_scout_old_f750.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pacific_p512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pacific_p512.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>paystar_5600ts.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paystar_5600ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="-0.03" RearOffsetZ=".1" Scale="0.63" Type="wheels_heavy_single2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" RearOffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1"  RearOffsetZ="0.1"  Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>khan_317_sentinel.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiffLockType=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Uninstalled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_SUSPENSION_DEFAULT_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="zikz_605r_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Damping="0.2" Height="0.2" Strength="0.03" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.45" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.101" Strength="0.8" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_ACTIVE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\suspensions\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s_zikz_605r.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeep_wrangler</t>
+  </si>
+  <si>
+    <t>tatra_force_t815_7</t>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_5\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jeep_wrangler.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_5\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tatra_force_t815_7.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\t_template="FirstAxle"
+\t\t\tSteeringAngle="18"
+\t\t\tSteeringCastor="4"
+\t\t\tSteeringJointOffset="0.3"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="6"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="6"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="24"
+\t\t\tSteeringCastor="12"
+\t\t\tSteeringJointOffset="0.3"
+\t\t\tTorque="full"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\t_template="FirstAxle"
+\t\t\tSteeringAngle="25"
+\t\t\tSteeringCastor="4"
+\t\t\tSteeringJointOffset="0.3"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="-2"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tCamberAnglePhysics="0"
+\t\t\tCamberAngleRender="-2"
+\t\t\tCamberSuspensionMultiplier="1.8"
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="35"
+\t\t\tSteeringCastor="12"
+\t\t\tSteeringJointOffset="0.3"
+\t\t\tTorque="full"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改轉向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels RearOffsetZ="0.04" Scale="0.64" Type="wheels_heavy_single" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels RearOffsetZ="0.04" Scale="0.64" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tayga_6455b</t>
+  </si>
+  <si>
+    <t>aramatsu_forester</t>
+  </si>
+  <si>
+    <t>ank_mk38_ht</t>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tayga_6455b.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>60"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_heavy_mudtires_tayga" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aramatsu_forester.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale=".66" Type="wheels_heavy_single2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale=".70" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 1.73; 0)" Size="0.8" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 2.73; 0)" Size="0.8" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_mk38_ht.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_medium_mudtires_ankmk38" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmc_8000</t>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\DLC_trial_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gmc_8000.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="285</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiffLockType="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2134,12 +2841,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -2184,7 +2900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,6 +2917,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2483,11 +3214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2513,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -2527,7 +3258,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2537,187 +3268,211 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2727,208 +3482,238 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2938,148 +3723,169 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="4" t="s">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3089,31 +3895,31 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3123,131 +3929,146 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3257,42 +4078,48 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3302,42 +4129,48 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3347,102 +4180,114 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3452,42 +4297,48 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3497,62 +4348,71 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3562,45 +4422,51 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3610,42 +4476,48 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3655,45 +4527,51 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3703,62 +4581,71 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3768,45 +4655,51 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3816,25 +4709,28 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3844,45 +4740,51 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3892,25 +4794,28 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B82" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3920,42 +4825,48 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3965,42 +4876,48 @@
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B88" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4010,65 +4927,74 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4078,62 +5004,71 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4143,62 +5078,71 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4208,62 +5152,71 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4273,25 +5226,28 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B106" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4301,158 +5257,197 @@
       <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B108" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="G108" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="E115" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>295</v>
+      <c r="A116" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4462,59 +5457,68 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="B120" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4524,8 +5528,567 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>292</v>
+      <c r="A122" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="369">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2212,7 +2212,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>e_us_scout_old_f750.xml</t>
     </r>
@@ -2235,7 +2234,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>pacific_p512.xml</t>
     </r>
@@ -2250,7 +2248,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2273,7 +2270,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>paystar_5600ts.xml</t>
     </r>
@@ -2315,7 +2311,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>khan_317_sentinel.xml</t>
     </r>
@@ -2330,7 +2325,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>16</t>
     </r>
@@ -2353,7 +2347,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>"Uninstalled</t>
     </r>
@@ -2409,7 +2402,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>s_zikz_605r.xml</t>
     </r>
@@ -2430,7 +2422,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>jeep_wrangler.xml</t>
     </r>
@@ -2445,7 +2436,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>tatra_force_t815_7.xml</t>
     </r>
@@ -2539,7 +2529,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>tayga_6455b.xml</t>
     </r>
@@ -2548,6 +2537,273 @@
   <si>
     <r>
       <t>FuelCapacity="3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>60"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_heavy_mudtires_tayga" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>aramatsu_forester.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels Scale=".66" Type="wheels_heavy_single2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale=".70" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 1.73; 0)" Size="0.8" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 2.73; 0)" Size="0.8" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ank_mk38_ht.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_medium_mudtires_ankmk38" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmc_8000</t>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\DLC_trial_6\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>gmc_8000.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="285</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiffLockType="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\kolob_74941_tuning\</t>
     </r>
     <r>
       <rPr>
@@ -2556,21 +2812,13 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="</t>
+      <t>kolob_74941_beacon_default.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -2579,7 +2827,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -2587,25 +2835,13 @@
         <color theme="1"/>
         <rFont val="SimSun"/>
       </rPr>
-      <t>60"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_heavy_mudtires_tayga" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" RearOffsetZ="0.05" Scale="0.64" Type="wheels_superheavy_single" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
+      <t>&lt;/ModelAttachments&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
     </r>
     <r>
       <rPr>
@@ -2614,13 +2850,15 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>aramatsu_forester.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="3</t>
+      <t>n\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&lt;TruckData RepairsCapacity="450"/&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2629,191 +2867,16 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t&lt;CompatibleWheels Scale=".66" Type="wheels_heavy_single2" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels Scale=".70" Type="wheels_superheavy_single" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 1.73; 0)" Size="0.8" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(5.723; 2.73; 0)" Size="0.8" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ank_mk38_ht.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_medium_mudtires_ankmk38" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ=".05" RearOffsetZ=".08" Scale="0.65" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmc_8000</t>
-  </si>
-  <si>
-    <r>
-      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\DLC_trial_6\classes\trucks\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gmc_8000.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="285</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="570</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DiffLockType="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修理箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2821,7 +2884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2846,6 +2909,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -2900,7 +2968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2932,6 +3000,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3214,11 +3285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4337,35 +4408,38 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -4375,19 +4449,16 @@
         <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4395,51 +4466,54 @@
         <v>352</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -4449,51 +4523,51 @@
         <v>204</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
@@ -4506,45 +4580,45 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
@@ -4554,51 +4628,51 @@
         <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -4611,13 +4685,13 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,51 +4702,51 @@
         <v>215</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -4682,82 +4756,82 @@
         <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
@@ -4767,82 +4841,82 @@
         <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
@@ -4855,45 +4929,45 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
@@ -4906,45 +4980,45 @@
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
@@ -4954,19 +5028,16 @@
         <v>244</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,54 +5045,57 @@
         <v>352</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
@@ -5034,13 +5108,13 @@
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,51 +5125,51 @@
         <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
@@ -5108,13 +5182,13 @@
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,51 +5199,51 @@
         <v>255</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
@@ -5182,13 +5256,13 @@
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,82 +5273,82 @@
         <v>260</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -5284,19 +5358,16 @@
         <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5310,94 +5381,97 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>296</v>
+        <v>206</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>299</v>
+      <c r="B111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>295</v>
+        <v>279</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G113" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
@@ -5407,74 +5481,74 @@
         <v>287</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>288</v>
+        <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>318</v>
+        <v>352</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G117" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
@@ -5487,18 +5561,18 @@
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>292</v>
@@ -5507,49 +5581,49 @@
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>313</v>
@@ -5558,49 +5632,49 @@
         <v>8</v>
       </c>
       <c r="E123" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>306</v>
@@ -5608,46 +5682,46 @@
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -5659,69 +5733,69 @@
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>310</v>
+      <c r="E129" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -5734,45 +5808,45 @@
         <v>8</v>
       </c>
       <c r="E133" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>325</v>
-      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -5781,17 +5855,17 @@
       <c r="B136" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>163</v>
+      <c r="E136" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5805,13 +5879,13 @@
         <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5821,106 +5895,106 @@
       <c r="B138" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F142" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -5932,14 +6006,14 @@
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>142</v>
+      <c r="E144" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5949,20 +6023,17 @@
       <c r="B145" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>302</v>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5973,49 +6044,52 @@
         <v>337</v>
       </c>
       <c r="C146" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8" t="s">
+      <c r="D147" s="8"/>
+      <c r="E147" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
@@ -6024,52 +6098,52 @@
       <c r="B149" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E150" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F150" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
@@ -6082,12 +6156,32 @@
         <v>8</v>
       </c>
       <c r="E152" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>164</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -447,12 +447,6 @@
   </si>
   <si>
     <t>wheels_scout_yar_871.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_HEAVY_CHAINS_SINGLE_1_NAME" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,41 +907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel"&gt;
-\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Mudtires F5.0" UiName="ANGEL_SUPERHEAVY_MUDTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_2_SUPERHEAVY_MUDTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_apache_chain_1" Name="chaintires_angel"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="10"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Chaintires F5.0" UiName="ANGEL_SUPERHEAVY_CHAINTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\n\t\t&lt;TruckRim Mesh="wheels/rim_heavy_offroad_single_1" Name="rim_4"&gt;
 \t\t\t&lt;GameData&gt;
 \t\t\t\t&lt;UiDesc UiDesc="UI_RIM_HEAVY_OFFROAD_SINGLE_1_DESC" UiName="UI_RIM_HEAVY_OFFROAD_SINGLE_1_NAME" /&gt;
@@ -2810,7 +2769,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>kolob_74941_beacon_default.xml</t>
     </r>
@@ -2825,7 +2783,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>t</t>
     </r>
@@ -2848,7 +2805,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>n\t</t>
     </r>
@@ -2865,7 +2821,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>\n</t>
     </r>
@@ -2877,6 +2832,57 @@
   </si>
   <si>
     <t>增加修理箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_SUPERHEAVY_MUDTIRES_4_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_chains_single_1" Name="chains_1"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="6800"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="14"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_HEAVY_CHAINS_SINGLE_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Mudtires F5.0" UiName="ANGEL_SUPERHEAVY_MUDTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_2_SUPERHEAVY_MUDTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_apache_chain_1" Name="chaintires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="10"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Chaintires F5.0" UiName="ANGEL_SUPERHEAVY_CHAINTIRES" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2884,7 +2890,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2909,6 +2915,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -2968,7 +2979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3003,6 +3014,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3288,8 +3302,8 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3354,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3360,7 +3374,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3380,7 +3394,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3400,7 +3414,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3409,18 +3423,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3429,18 +3443,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3463,7 +3477,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3483,7 +3497,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3503,7 +3517,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3523,7 +3537,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3554,7 +3568,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
@@ -3566,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -3577,7 +3591,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -3589,7 +3603,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>22</v>
@@ -3600,7 +3614,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
@@ -3612,7 +3626,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>22</v>
@@ -3623,7 +3637,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -3635,7 +3649,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -3646,7 +3660,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -3658,7 +3672,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
@@ -3669,7 +3683,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>47</v>
@@ -3681,7 +3695,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
@@ -3692,7 +3706,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>51</v>
@@ -3704,7 +3718,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
@@ -3715,7 +3729,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>54</v>
@@ -3727,7 +3741,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>22</v>
@@ -3738,7 +3752,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>56</v>
@@ -3750,7 +3764,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
@@ -3761,7 +3775,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>59</v>
@@ -3773,7 +3787,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
@@ -3795,7 +3809,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>70</v>
@@ -3807,7 +3821,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
@@ -3818,7 +3832,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>70</v>
@@ -3830,7 +3844,7 @@
         <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>22</v>
@@ -3841,7 +3855,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>75</v>
@@ -3853,7 +3867,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
@@ -3864,7 +3878,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>79</v>
@@ -3876,7 +3890,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>22</v>
@@ -3887,76 +3901,76 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>107</v>
+        <v>367</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3967,25 +3981,25 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,145 +4015,145 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4150,47 +4164,47 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4201,47 +4215,47 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4252,113 +4266,113 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4369,70 +4383,70 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4443,70 +4457,70 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4517,50 +4531,50 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4571,47 +4585,47 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4622,50 +4636,50 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4676,70 +4690,70 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4750,50 +4764,50 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4804,27 +4818,27 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4835,50 +4849,50 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4889,27 +4903,27 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4920,47 +4934,47 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4971,47 +4985,47 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5022,73 +5036,73 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5099,70 +5113,70 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5173,70 +5187,70 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5247,70 +5261,70 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5321,27 +5335,27 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5352,119 +5366,119 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G111" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F113" s="8" t="s">
+      <c r="G113" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5475,73 +5489,73 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5552,67 +5566,67 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5623,47 +5637,47 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5674,47 +5688,47 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5725,70 +5739,70 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5799,47 +5813,47 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5850,90 +5864,90 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5944,50 +5958,50 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5998,91 +6012,91 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6093,50 +6107,50 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="F150" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6147,42 +6161,42 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="375">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2885,12 +2885,69 @@
 \t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\paystar_5600ts_tuning\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>paystar_5600ts_air_conditioner_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t&lt;PhysicsModel Mesh="trucks/paystar_5600ts_tuning/paystar_5600ts_air_conditioner_1" /&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n\t&lt;TruckData RepairsCapacity="450"/&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2915,6 +2972,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -2979,7 +3041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3017,6 +3079,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3299,11 +3364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="D29:E29"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5801,35 +5866,38 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
@@ -5842,45 +5910,45 @@
         <v>8</v>
       </c>
       <c r="E134" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>323</v>
-      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
@@ -5889,17 +5957,17 @@
       <c r="B137" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>161</v>
+      <c r="E137" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5913,13 +5981,13 @@
         <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5929,106 +5997,106 @@
       <c r="B139" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F140" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F143" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
@@ -6040,14 +6108,14 @@
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>140</v>
+      <c r="E145" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6057,20 +6125,17 @@
       <c r="B146" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>300</v>
+      <c r="C146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6081,49 +6146,52 @@
         <v>335</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8" t="s">
+      <c r="D148" s="8"/>
+      <c r="E148" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F148" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
@@ -6132,52 +6200,52 @@
       <c r="B150" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F151" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
@@ -6190,12 +6258,32 @@
         <v>8</v>
       </c>
       <c r="E153" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>162</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="363">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,34 +258,6 @@
   </si>
   <si>
     <t>e_us_scout_modern.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t&lt;Engine
-\t\t_template="USScoutModernEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="140"
-\t\tDamagedConsumptionModifier="1.4"
-\t\tFuelConsumption="1.3"
-\t\tName="us_scout_modern_engine_3"
-\t\tTorque="120000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t\tMaxDeltaAngVel="0.01"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="6600"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_ENGINE_US_SCOUT_MODERN_2_DESC"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2713,54 +2685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\kolob_74941_tuning\</t>
     </r>
@@ -2886,10 +2810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_3\classes\trucks\paystar_5600ts_tuning\</t>
     </r>
@@ -2898,7 +2818,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>paystar_5600ts_air_conditioner_1.xml</t>
     </r>
@@ -2917,7 +2836,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>t&lt;PhysicsModel Mesh="trucks/paystar_5600ts_tuning/paystar_5600ts_air_conditioner_1" /&gt;</t>
     </r>
@@ -2932,7 +2850,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>n\t&lt;TruckData RepairsCapacity="450"/&gt;\n</t>
     </r>
@@ -2940,6 +2857,17 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2947,7 +2875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2972,6 +2900,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3041,7 +2974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3082,6 +3015,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3367,8 +3303,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3418,9 +3354,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3438,9 +3372,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3458,9 +3390,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3468,19 +3398,17 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3488,19 +3416,17 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3508,19 +3434,17 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3541,9 +3465,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3557,13 +3479,11 @@
         <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3577,13 +3497,11 @@
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3597,13 +3515,11 @@
         <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3617,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3632,9 +3548,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3645,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -3655,9 +3569,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>354</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -3668,7 +3580,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>22</v>
@@ -3678,9 +3590,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>359</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -3691,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>22</v>
@@ -3701,9 +3611,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3714,7 +3622,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
@@ -3724,8 +3632,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>352</v>
+      <c r="A18" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -3733,11 +3641,11 @@
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
+      <c r="D18" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
@@ -3747,118 +3655,108 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3873,169 +3771,155 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>354</v>
-      </c>
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>351</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4045,31 +3929,29 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4079,146 +3961,134 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4228,48 +4098,44 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4279,48 +4145,44 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4330,114 +4192,104 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4447,71 +4299,64 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="B56" s="11" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4521,71 +4366,65 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4595,51 +4434,47 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4649,48 +4484,44 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4700,51 +4531,47 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4754,71 +4581,65 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A73" s="8"/>
       <c r="B73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4828,51 +4649,47 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A76" s="8"/>
       <c r="B76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4882,28 +4699,26 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4913,51 +4728,47 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4967,28 +4778,26 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A83" s="8"/>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4998,48 +4807,44 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A85" s="8"/>
       <c r="B85" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A86" s="8"/>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5049,48 +4854,44 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5100,74 +4901,68 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A93" s="8"/>
       <c r="B93" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5177,71 +4972,65 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A95" s="8"/>
       <c r="B95" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5251,71 +5040,65 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5325,71 +5108,65 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A103" s="8"/>
       <c r="B103" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="G103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A104" s="8"/>
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F105" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5399,28 +5176,26 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A107" s="8"/>
       <c r="B107" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5430,120 +5205,110 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A109" s="8"/>
       <c r="B109" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="G109" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A111" s="8"/>
       <c r="B111" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="G111" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A113" s="8"/>
       <c r="B113" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="G113" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5553,74 +5318,68 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>352</v>
-      </c>
+      <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="F117" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5630,68 +5389,62 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A119" s="8"/>
       <c r="B119" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="G120" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>353</v>
-      </c>
+      <c r="A121" s="8"/>
       <c r="B121" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5701,48 +5454,44 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>351</v>
-      </c>
+      <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5752,48 +5501,44 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A126" s="8"/>
       <c r="B126" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5803,94 +5548,85 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A129" s="8"/>
       <c r="B129" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A130" s="8"/>
       <c r="B130" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="A131" s="8"/>
       <c r="B131" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="F131" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="B132" s="13" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5900,48 +5636,44 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A134" s="8"/>
       <c r="B134" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A135" s="8"/>
       <c r="B135" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5951,91 +5683,83 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A137" s="8"/>
       <c r="B137" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="G137" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A138" s="8"/>
       <c r="B138" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A139" s="8"/>
       <c r="B139" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A140" s="8"/>
       <c r="B140" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F140" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6045,51 +5769,47 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="A142" s="8"/>
       <c r="B142" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E142" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F142" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="G142" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="F143" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6099,92 +5819,84 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F145" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A147" s="8"/>
       <c r="B147" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E147" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="F147" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A148" s="8"/>
       <c r="B148" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="G148" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6194,51 +5906,47 @@
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A150" s="8"/>
       <c r="B150" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A151" s="8"/>
       <c r="B151" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D151" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>344</v>
-      </c>
       <c r="F151" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6248,43 +5956,39 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A153" s="8"/>
       <c r="B153" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="G153" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A154" s="8"/>
       <c r="B154" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="369">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2860,14 +2860,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
 \t&lt;/Engine&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2875,7 +2899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2900,6 +2924,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -2974,7 +3003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3005,9 +3034,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3018,6 +3044,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3304,7 +3336,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3386,9 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3406,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3426,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3446,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3466,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3486,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3509,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3483,7 +3529,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3501,7 +3549,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3519,7 +3569,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3548,7 +3600,9 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3569,7 +3623,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -3590,7 +3646,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +3669,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3632,8 +3692,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>361</v>
+      <c r="A18" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -3641,8 +3701,8 @@
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>362</v>
+      <c r="D18" s="13" t="s">
+        <v>361</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>95</v>
@@ -3655,7 +3715,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
@@ -3676,7 +3738,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
@@ -3697,7 +3761,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3718,7 +3784,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3739,7 +3807,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
@@ -3771,7 +3841,9 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3792,7 +3864,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
@@ -3813,7 +3887,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3834,7 +3910,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
@@ -3855,7 +3933,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
@@ -3865,7 +3945,7 @@
       <c r="D29" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>355</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -3876,7 +3956,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>80</v>
       </c>
@@ -3897,7 +3979,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>85</v>
       </c>
@@ -3929,7 +4013,9 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
@@ -3961,7 +4047,9 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3982,7 +4070,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
@@ -4003,7 +4093,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
@@ -4024,7 +4116,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
@@ -4045,7 +4139,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
@@ -4066,7 +4162,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
       </c>
@@ -4098,7 +4196,9 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>134</v>
       </c>
@@ -4116,7 +4216,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>134</v>
       </c>
@@ -4145,7 +4247,9 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>141</v>
       </c>
@@ -4163,7 +4267,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
@@ -4192,7 +4298,9 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>147</v>
       </c>
@@ -4210,7 +4318,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -4228,7 +4338,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>147</v>
       </c>
@@ -4249,7 +4361,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>147</v>
       </c>
@@ -4267,7 +4381,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>147</v>
       </c>
@@ -4299,7 +4415,9 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>170</v>
       </c>
@@ -4317,7 +4435,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4335,22 +4455,25 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4366,7 +4489,9 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4384,7 +4509,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>175</v>
       </c>
@@ -4405,7 +4532,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>198</v>
       </c>
@@ -4434,7 +4563,9 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4452,7 +4583,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>201</v>
       </c>
@@ -4484,7 +4617,9 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>205</v>
       </c>
@@ -4502,7 +4637,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>205</v>
       </c>
@@ -4531,7 +4668,9 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>209</v>
       </c>
@@ -4549,7 +4688,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4581,7 +4722,9 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>212</v>
       </c>
@@ -4599,7 +4742,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
@@ -4617,7 +4762,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>212</v>
       </c>
@@ -4649,7 +4796,9 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>217</v>
       </c>
@@ -4667,7 +4816,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>217</v>
       </c>
@@ -4699,7 +4850,9 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>224</v>
       </c>
@@ -4728,7 +4881,9 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
       </c>
@@ -4746,7 +4901,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>225</v>
       </c>
@@ -4778,7 +4935,9 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>235</v>
       </c>
@@ -4807,7 +4966,9 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
       </c>
@@ -4825,7 +4986,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>236</v>
       </c>
@@ -4854,7 +5017,9 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>240</v>
       </c>
@@ -4872,7 +5037,9 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>240</v>
       </c>
@@ -4901,7 +5068,9 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>241</v>
       </c>
@@ -4919,7 +5088,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>241</v>
       </c>
@@ -4940,7 +5111,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>262</v>
       </c>
@@ -4972,7 +5145,9 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>245</v>
       </c>
@@ -4990,7 +5165,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>245</v>
       </c>
@@ -5008,7 +5185,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>245</v>
       </c>
@@ -5040,7 +5219,9 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>252</v>
       </c>
@@ -5058,7 +5239,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>252</v>
       </c>
@@ -5076,7 +5259,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>252</v>
       </c>
@@ -5108,7 +5293,9 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>257</v>
       </c>
@@ -5126,7 +5313,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>257</v>
       </c>
@@ -5144,7 +5333,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>257</v>
       </c>
@@ -5176,7 +5367,9 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>267</v>
       </c>
@@ -5205,7 +5398,9 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>270</v>
       </c>
@@ -5223,7 +5418,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>270</v>
       </c>
@@ -5244,7 +5441,9 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>270</v>
       </c>
@@ -5265,7 +5464,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B112" s="6" t="s">
         <v>295</v>
       </c>
@@ -5286,7 +5487,9 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B113" s="8" t="s">
         <v>300</v>
       </c>
@@ -5318,7 +5521,9 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
       </c>
@@ -5336,7 +5541,9 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>284</v>
       </c>
@@ -5357,7 +5564,9 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="B117" s="8" t="s">
         <v>315</v>
       </c>
@@ -5389,7 +5598,9 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>289</v>
       </c>
@@ -5407,7 +5618,9 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>289</v>
       </c>
@@ -5425,7 +5638,9 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>289</v>
       </c>
@@ -5454,7 +5669,9 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B123" s="8" t="s">
         <v>310</v>
       </c>
@@ -5472,7 +5689,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B124" s="8" t="s">
         <v>310</v>
       </c>
@@ -5501,7 +5720,9 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B126" s="8" t="s">
         <v>303</v>
       </c>
@@ -5519,7 +5740,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B127" s="8" t="s">
         <v>303</v>
       </c>
@@ -5548,7 +5771,9 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B129" s="8" t="s">
         <v>305</v>
       </c>
@@ -5566,7 +5791,9 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B130" s="8" t="s">
         <v>305</v>
       </c>
@@ -5584,7 +5811,9 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B131" s="8" t="s">
         <v>305</v>
       </c>
@@ -5605,19 +5834,22 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="13" t="s">
+      <c r="A132" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="E132" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="12" t="s">
         <v>360</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -5636,7 +5868,9 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B134" s="8" t="s">
         <v>318</v>
       </c>
@@ -5654,7 +5888,9 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B135" s="8" t="s">
         <v>318</v>
       </c>
@@ -5683,7 +5919,9 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
+      <c r="A137" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B137" s="8" t="s">
         <v>319</v>
       </c>
@@ -5701,7 +5939,9 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B138" s="8" t="s">
         <v>319</v>
       </c>
@@ -5719,7 +5959,9 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+      <c r="A139" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B139" s="8" t="s">
         <v>319</v>
       </c>
@@ -5737,7 +5979,9 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B140" s="8" t="s">
         <v>319</v>
       </c>
@@ -5769,7 +6013,9 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B142" s="8" t="s">
         <v>328</v>
       </c>
@@ -5787,7 +6033,9 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B143" s="8" t="s">
         <v>328</v>
       </c>
@@ -5819,7 +6067,9 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B145" s="8" t="s">
         <v>334</v>
       </c>
@@ -5837,7 +6087,9 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B146" s="8" t="s">
         <v>334</v>
       </c>
@@ -5855,7 +6107,9 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+      <c r="A147" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="B147" s="8" t="s">
         <v>334</v>
       </c>
@@ -5876,7 +6130,9 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+      <c r="A148" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B148" s="8" t="s">
         <v>334</v>
       </c>
@@ -5906,7 +6162,9 @@
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
+      <c r="A150" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B150" s="8" t="s">
         <v>341</v>
       </c>
@@ -5924,7 +6182,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+      <c r="A151" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="B151" s="8" t="s">
         <v>341</v>
       </c>
@@ -5956,7 +6216,9 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+      <c r="A153" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B153" s="8" t="s">
         <v>345</v>
       </c>
@@ -5974,7 +6236,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
+      <c r="A154" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="B154" s="8" t="s">
         <v>345</v>
       </c>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="369">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2700,28 +2700,6 @@
   </si>
   <si>
     <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>&lt;/ModelAttachments&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>\</t>
     </r>
     <r>
@@ -2892,6 +2870,10 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/ModelAttachments&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2960,7 +2942,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3335,8 +3316,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3386,9 +3367,6 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3406,9 +3384,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3426,9 +3402,6 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3446,9 +3419,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3466,9 +3437,6 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3486,9 +3454,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3509,9 +3475,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3529,9 +3493,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3549,9 +3511,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3569,9 +3529,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3600,9 +3558,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3623,9 +3579,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -3646,9 +3600,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -3669,9 +3621,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3692,9 +3642,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3702,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>95</v>
@@ -3715,9 +3663,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
@@ -3738,9 +3684,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
@@ -3761,9 +3705,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3784,9 +3726,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3807,9 +3747,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
@@ -3842,7 +3780,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
@@ -3864,9 +3802,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
@@ -3887,9 +3823,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3910,9 +3844,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
@@ -3933,9 +3865,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
@@ -3943,10 +3873,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
@@ -3956,9 +3886,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>80</v>
       </c>
@@ -3979,9 +3907,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>85</v>
       </c>
@@ -4014,7 +3940,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
@@ -4048,7 +3974,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>108</v>
@@ -4071,7 +3997,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>112</v>
@@ -4094,7 +4020,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>117</v>
@@ -4117,7 +4043,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
@@ -4140,7 +4066,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>126</v>
@@ -4163,7 +4089,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
@@ -4197,7 +4123,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>134</v>
@@ -4217,7 +4143,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>134</v>
@@ -4248,7 +4174,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>141</v>
@@ -4268,7 +4194,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>142</v>
@@ -4299,7 +4225,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>147</v>
@@ -4319,7 +4245,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>147</v>
@@ -4339,7 +4265,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>147</v>
@@ -4362,7 +4288,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>147</v>
@@ -4382,7 +4308,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>147</v>
@@ -4416,7 +4342,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>170</v>
@@ -4436,7 +4362,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>170</v>
@@ -4456,7 +4382,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>349</v>
@@ -4464,17 +4390,17 @@
       <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4490,7 +4416,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>175</v>
@@ -4510,7 +4436,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>175</v>
@@ -4533,7 +4459,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>198</v>
@@ -4564,7 +4490,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>201</v>
@@ -4584,7 +4510,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>201</v>
@@ -4618,7 +4544,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>205</v>
@@ -4638,7 +4564,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>205</v>
@@ -4669,7 +4595,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>209</v>
@@ -4689,7 +4615,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>209</v>
@@ -4723,7 +4649,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>212</v>
@@ -4743,7 +4669,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>212</v>
@@ -4763,7 +4689,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>212</v>
@@ -4797,7 +4723,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>217</v>
@@ -4817,7 +4743,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>217</v>
@@ -4851,7 +4777,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>224</v>
@@ -4882,7 +4808,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -4902,7 +4828,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>225</v>
@@ -4936,7 +4862,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>235</v>
@@ -4967,7 +4893,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
@@ -4987,7 +4913,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>236</v>
@@ -5018,7 +4944,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>240</v>
@@ -5038,7 +4964,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>240</v>
@@ -5069,7 +4995,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>241</v>
@@ -5089,7 +5015,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>241</v>
@@ -5112,7 +5038,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>262</v>
@@ -5146,7 +5072,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>245</v>
@@ -5166,7 +5092,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>245</v>
@@ -5186,7 +5112,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>245</v>
@@ -5220,7 +5146,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>252</v>
@@ -5240,7 +5166,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>252</v>
@@ -5260,7 +5186,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>252</v>
@@ -5294,7 +5220,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>257</v>
@@ -5314,7 +5240,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>257</v>
@@ -5334,7 +5260,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>257</v>
@@ -5368,7 +5294,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>267</v>
@@ -5399,7 +5325,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>270</v>
@@ -5419,7 +5345,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>270</v>
@@ -5442,7 +5368,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>270</v>
@@ -5465,7 +5391,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>295</v>
@@ -5488,7 +5414,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>300</v>
@@ -5522,7 +5448,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
@@ -5542,7 +5468,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>284</v>
@@ -5565,7 +5491,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>315</v>
@@ -5599,7 +5525,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>289</v>
@@ -5619,7 +5545,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>289</v>
@@ -5639,7 +5565,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>289</v>
@@ -5670,7 +5596,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>310</v>
@@ -5690,7 +5616,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>310</v>
@@ -5721,7 +5647,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>303</v>
@@ -5741,7 +5667,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>303</v>
@@ -5772,7 +5698,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>305</v>
@@ -5792,7 +5718,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>305</v>
@@ -5812,7 +5738,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>305</v>
@@ -5835,22 +5761,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="F132" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>265</v>
@@ -5869,7 +5795,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>318</v>
@@ -5889,7 +5815,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>318</v>
@@ -5920,7 +5846,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>319</v>
@@ -5940,7 +5866,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>319</v>
@@ -5960,7 +5886,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>319</v>
@@ -5980,7 +5906,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>319</v>
@@ -6014,7 +5940,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>328</v>
@@ -6034,7 +5960,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>328</v>
@@ -6068,7 +5994,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>334</v>
@@ -6088,7 +6014,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>334</v>
@@ -6108,7 +6034,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>334</v>
@@ -6131,7 +6057,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>334</v>
@@ -6163,7 +6089,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>341</v>
@@ -6183,7 +6109,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>341</v>
@@ -6217,7 +6143,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>345</v>
@@ -6237,7 +6163,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>345</v>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="374">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2876,12 +2876,32 @@
     <t>&lt;/ModelAttachments&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2943,6 +2963,12 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2984,7 +3010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3031,6 +3057,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3316,8 +3348,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3367,6 +3399,9 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3384,7 +3419,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3402,6 +3439,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3419,7 +3459,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3437,6 +3479,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3499,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3475,7 +3522,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3493,7 +3542,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3511,7 +3562,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="16" t="s">
+        <v>371</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3529,7 +3582,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3558,7 +3613,9 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3579,7 +3636,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -3600,7 +3659,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -3621,7 +3682,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17" t="s">
+        <v>372</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3642,7 +3705,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3663,7 +3728,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
@@ -3684,7 +3751,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
@@ -3705,7 +3774,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3726,7 +3797,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17" t="s">
+        <v>373</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3747,7 +3820,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
@@ -3802,7 +3877,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
@@ -3823,7 +3900,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3844,7 +3923,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
@@ -3865,7 +3946,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
@@ -3886,7 +3969,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>80</v>
       </c>
@@ -3907,7 +3992,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>85</v>
       </c>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2896,12 +2896,34 @@
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;CraneSocket Pos="(-4.227; 1.086; 0)" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="ScautTrailer" Offset="(0.77; 3.3; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以加掛雷達車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2926,6 +2948,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3010,7 +3037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3063,6 +3090,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3345,11 +3375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5221,39 +5251,42 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>252</v>
@@ -5262,13 +5295,13 @@
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5279,55 +5312,55 @@
         <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>257</v>
@@ -5336,99 +5369,99 @@
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
@@ -5438,19 +5471,16 @@
         <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5464,94 +5494,97 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>293</v>
+        <v>203</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>296</v>
+      <c r="B112" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>292</v>
+        <v>276</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F114" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G114" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
@@ -5561,74 +5594,74 @@
         <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>315</v>
+        <v>361</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G117" s="6" t="s">
+      <c r="G118" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
@@ -5641,13 +5674,13 @@
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,45 +5694,45 @@
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
@@ -5712,45 +5745,45 @@
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
@@ -5762,46 +5795,46 @@
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
@@ -5813,14 +5846,14 @@
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>307</v>
+      <c r="E130" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5830,75 +5863,75 @@
       <c r="B131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>308</v>
+      <c r="C131" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C133" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D133" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E133" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F133" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -5911,45 +5944,45 @@
         <v>8</v>
       </c>
       <c r="E135" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>322</v>
-      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
@@ -5958,17 +5991,17 @@
       <c r="B138" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>160</v>
+      <c r="E138" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5982,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5998,52 +6031,52 @@
       <c r="B140" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F141" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
@@ -6052,52 +6085,52 @@
       <c r="B143" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F144" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
@@ -6109,144 +6142,144 @@
       <c r="C146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>139</v>
+      <c r="E146" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>299</v>
+      <c r="C147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>334</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8" t="s">
+      <c r="D149" s="8"/>
+      <c r="E149" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F149" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E152" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F152" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
@@ -6259,12 +6292,32 @@
         <v>8</v>
       </c>
       <c r="E154" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>161</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="374">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2896,34 +2896,12 @@
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>&lt;CraneSocket Pos="(-4.227; 1.086; 0)" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="ScautTrailer" Offset="(0.77; 3.3; 0)" /&gt;
-\t\t&lt;/AddonSockets&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以加掛雷達車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2990,12 +2968,6 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3037,7 +3009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3090,9 +3062,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3375,11 +3344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5251,42 +5220,39 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>377</v>
-      </c>
+      <c r="A98" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="A99" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>252</v>
@@ -5295,13 +5261,13 @@
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5312,55 +5278,55 @@
         <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G101" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>257</v>
@@ -5369,99 +5335,99 @@
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="E107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
@@ -5471,16 +5437,19 @@
         <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5494,97 +5463,94 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>158</v>
+        <v>278</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>6</v>
+      <c r="B112" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>294</v>
+      <c r="B113" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="A114" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+      <c r="A115" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
@@ -5594,74 +5560,74 @@
         <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>366</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>158</v>
+      <c r="D117" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="A118" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="A119" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
@@ -5674,13 +5640,13 @@
         <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5694,45 +5660,45 @@
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="G121" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
@@ -5745,45 +5711,45 @@
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
@@ -5795,46 +5761,46 @@
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
@@ -5846,14 +5812,14 @@
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>173</v>
+      <c r="E130" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,75 +5829,75 @@
       <c r="B131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>8</v>
+      <c r="C131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>153</v>
+        <v>309</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>299</v>
+      <c r="B132" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="A133" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="A134" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -5944,45 +5910,45 @@
         <v>8</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="A136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="E137" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
@@ -5991,17 +5957,17 @@
       <c r="B138" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>322</v>
+      <c r="E138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,13 +5981,13 @@
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6031,52 +5997,52 @@
       <c r="B140" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
+      <c r="E142" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
@@ -6085,52 +6051,52 @@
       <c r="B143" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G143" s="1" t="s">
+      <c r="E145" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
@@ -6142,144 +6108,144 @@
       <c r="C146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>336</v>
+      <c r="E146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>139</v>
+      <c r="C147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>334</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>337</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C149" s="8" t="s">
+      <c r="A149" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
+      <c r="E150" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G151" s="1" t="s">
+      <c r="E153" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
@@ -6292,32 +6258,12 @@
         <v>8</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G155" s="1" t="s">
         <v>161</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="384">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2149,10 +2149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pacific_p512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2896,12 +2892,220 @@
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ew Radar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_4\classes\trucks\addons\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>tatra_805_kung.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="MetalDetector" Offset="(-0.23; 0.0; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>New Radar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TruckAddon&gt;
+\t&lt;PoweredConstraints&gt;
+\t\t&lt;Chain
+\t\t\tAction="1"
+\t\t\tLocaleUid="UI_SCAN_METAL_DETECTOR"
+\t\t\tName="Watchpoint_Trailer"
+\t\t\tParentBodies="BoneWingL_cdt, BoneWingR_cdt"
+\t\t\tResetOnLoad="true"
+\t\t&gt;
+\t\t\t&lt;Group Id="anchors_position"&gt;
+\t\t\t\t&lt;Constraint
+\t\t\t\t\tInitialFix="true"
+\t\t\t\t\tName="Runner"
+\t\t\t\t\tSpeedMult="0.5"
+\t\t\t\t\tPosition="90"
+\t\t\t\t/&gt;
+\t\t\t&lt;/Group&gt;
+\t\t&lt;/Chain&gt;
+\t&lt;/PoweredConstraints&gt;
+\t&lt;TruckData
+\t\tFuelCapacity="1200"
+\t/&gt;
+\t&lt;PhysicsModel Mesh="trucks/addons/frame_addon_metal_detector"&gt;
+\t\t&lt;Body Mass="200"&gt;
+\t\t\t&lt;Constraint Type="Rigid" /&gt;
+\t\t\t&lt;Body
+\t\t\t\tFriction="2.0"
+\t\t\t\tMass="50"
+\t\t\t\tModelFrame="BoneWingL_cdt"
+\t\t\t\tNoFoliageCollisions="true"
+\t\t\t&gt;
+\t\t\t\t&lt;Constraint
+\t\t\t\t\tAxisLocal="(1; 0; 0)"
+\t\t\t\t\tName="Runner"
+\t\t\t\t\tType="Hinge"
+\t\t\t\t\tMinLimit="0"
+\t\t\t\t\tMaxLimit="90"
+\t\t\t\t&gt;
+\t\t\t\t\t&lt;Motor
+\t\t\t\t\t\tDamping="1.0"
+\t\t\t\t\t\tForce="1000"
+\t\t\t\t\t\tTau="0.04"
+\t\t\t\t\t\tType="Position"
+\t\t\t\t\t/&gt;
+\t\t\t\t&lt;/Constraint&gt;
+\t\t\t&lt;/Body&gt;
+\t\t\t&lt;Body
+\t\t\t\tFriction="2.0"
+\t\t\t\tMass="50"
+\t\t\t\tModelFrame="BoneWingR_cdt"
+\t\t\t\tNoFoliageCollisions="true"
+\t\t\t&gt;
+\t\t\t\t&lt;Constraint
+\t\t\t\t\tAxisLocal="(-1; 0; 0)"
+\t\t\t\t\tName="Runner"
+\t\t\t\t\tType="Hinge"
+\t\t\t\t\tMinLimit="0"
+\t\t\t\t\tMaxLimit="90"
+\t\t\t\t&gt;
+\t\t\t\t\t&lt;Motor
+\t\t\t\t\t\tDamping="1.0"
+\t\t\t\t\t\tForce="1000"
+\t\t\t\t\t\tTau="0.04"
+\t\t\t\t\t\tType="Position"
+\t\t\t\t\t/&gt;
+\t\t\t\t&lt;/Constraint&gt;
+\t\t\t&lt;/Body&gt;
+\t\t\t&lt;Body ImpactType="Truck" Mass="20" ModelFrame="BoneWiggleR_cdt"&gt;
+\t\t\t\t&lt;Constraint
+\t\t\t\t\tLinearLimitsX="(-0.3; 0.3)"
+\t\t\t\t\tLinearLimitsY="(-0.2; 0.3)"
+\t\t\t\t\tLinearLimitsZ="(-0.3; 0.3)"
+\t\t\t\t\tType="Fixed"
+\t\t\t\t&gt;
+\t\t\t\t\t&lt;Motor Damping="90" Spring="10000" Type="Spring" /&gt;
+\t\t\t\t&lt;/Constraint&gt;
+\t\t\t&lt;/Body&gt;
+\t\t\t&lt;Body ImpactType="Truck" Mass="30" ModelFrame="BoneWiggleL_cdt"&gt;
+\t\t\t\t&lt;Constraint
+\t\t\t\t\tLinearLimitsX="(-0.3; 0.3)"
+\t\t\t\t\tLinearLimitsY="(-0.2; 0.3)"
+\t\t\t\t\tLinearLimitsZ="(-0.3; 0.3)"
+\t\t\t\t\tType="Fixed"
+\t\t\t\t&gt;
+\t\t\t\t\t&lt;Motor Damping="70" Spring="5000" Type="Spring" /&gt;
+\t\t\t\t&lt;/Constraint&gt;
+\t\t\t&lt;/Body&gt;
+\t\t&lt;/Body&gt;
+\t&lt;/PhysicsModel&gt;
+\t&lt;GameData
+\t\tCameraPreset="addon_1"
+\t\tCategory="frame_addons"
+\t\tIsCustomizable="true"
+\t\tPrice="0"
+\t\tUnlockByExploration="false"
+\t\tUnlockByRank="1"
+\t&gt;
+\t\t&lt;UiDesc
+\t\t\tUiDesc="New Radar"
+\t\t\tUiIcon30x30=""
+\t\t\tUiIcon40x40=""
+\t\t\tUiName="NEW_RADAR"
+\t\t/&gt;
+\t\t&lt;SoundPoweredGroupStart Name="addons/metal_detector/metal_detector_open" Range="20" Volume="1" /&gt;
+\t\t&lt;SoundPoweredGroupLoop Name="addons/metal_detector/metal_detector_scan" Range="20" Volume="1" /&gt;
+\t\t&lt;SoundPoweredGroupStop Name="addons/metal_detector/metal_detector_close" Range="20" Volume="1" /&gt;
+\t\t&lt;InstallSocket Type="MetalDetector" /&gt;
+\t\t&lt;AddonType Name="Watchtower" /&gt;
+\t&lt;/GameData&gt;
+\t&lt;AutomaticIK&gt;
+\t\t&lt;IKBone ModelFrame="BonePistonLHinge" ParentFrame="BoneBase_cdt"&gt;
+\t\t\t&lt;IKJoint AxisLocal="(0; 0; 1)" Type="Hinge" /&gt;
+\t\t\t&lt;IKBone
+\t\t\t\tAttachOffset="(0; 0; 0)"
+\t\t\t\tAttachToFrame="BoneWingL_cdt"
+\t\t\t\tModelFrame="BonePistonLSlider"
+\t\t\t&gt;
+\t\t\t\t&lt;IKJoint AxisLocal="(1; 0; 0)" Type="Slider" /&gt;
+\t\t\t&lt;/IKBone&gt;
+\t\t&lt;/IKBone&gt;
+\t\t&lt;IKBone ModelFrame="BonePistonRHinge" ParentFrame="BoneBase_cdt"&gt;
+\t\t\t&lt;IKJoint AxisLocal="(0; 0; 1)" Type="Hinge" /&gt;
+\t\t\t&lt;IKBone
+\t\t\t\tAttachOffset="(0; 0; 0)"
+\t\t\t\tAttachToFrame="BoneWingR_cdt"
+\t\t\t\tModelFrame="BonePistonRSlider"
+\t\t\t&gt;
+\t\t\t\t&lt;IKJoint AxisLocal="(1; 0; 0)" Type="Slider" /&gt;
+\t\t\t&lt;/IKBone&gt;
+\t\t&lt;/IKBone&gt;
+\t&lt;/AutomaticIK&gt;
+&lt;/TruckAddon&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2968,8 +3172,13 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2994,6 +3203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3009,7 +3224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3062,6 +3277,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3344,11 +3565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3399,7 +3620,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3419,7 +3640,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3439,7 +3660,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3459,7 +3680,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3479,7 +3700,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3499,7 +3720,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3522,7 +3743,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3542,7 +3763,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3562,7 +3783,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3582,7 +3803,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3613,7 +3834,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
@@ -3636,7 +3857,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -3659,7 +3880,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
@@ -3682,7 +3903,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -3705,7 +3926,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -3714,7 +3935,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>95</v>
@@ -3728,7 +3949,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>46</v>
@@ -3751,7 +3972,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
@@ -3774,7 +3995,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
@@ -3797,7 +4018,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
@@ -3820,7 +4041,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -3854,7 +4075,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
@@ -3877,7 +4098,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
@@ -3900,7 +4121,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>74</v>
@@ -3923,7 +4144,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>78</v>
@@ -3946,7 +4167,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>80</v>
@@ -3955,10 +4176,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
@@ -3969,7 +4190,7 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>80</v>
@@ -3992,7 +4213,7 @@
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>85</v>
@@ -4026,7 +4247,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
@@ -4060,7 +4281,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>108</v>
@@ -4083,7 +4304,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>112</v>
@@ -4106,7 +4327,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>117</v>
@@ -4129,7 +4350,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
@@ -4152,7 +4373,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>126</v>
@@ -4175,7 +4396,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
@@ -4197,184 +4418,172 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>147</v>
@@ -4383,507 +4592,519 @@
         <v>148</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="A53" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="A57" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>160</v>
+        <v>360</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="A61" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>361</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A72" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="A74" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>361</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4894,81 +5115,81 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4979,428 +5200,428 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="E87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="D94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A96" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="A98" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A100" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>254</v>
+        <v>8</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="A102" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A104" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="A106" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5411,290 +5632,293 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A110" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>293</v>
+        <v>273</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>296</v>
+        <v>360</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>294</v>
+        <v>274</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C113" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>301</v>
+      <c r="D113" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="A114" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B115" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B120" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>310</v>
+        <v>360</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>311</v>
+      <c r="E123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>160</v>
@@ -5702,16 +5926,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>310</v>
+        <v>360</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>312</v>
+      <c r="E124" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>139</v>
@@ -5721,8 +5945,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>302</v>
+      <c r="A125" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5733,47 +5957,47 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>139</v>
+      <c r="E126" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5784,10 +6008,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
@@ -5804,16 +6028,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>153</v>
@@ -5823,105 +6047,105 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B131" s="8" t="s">
+      <c r="A131" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
+      <c r="A133" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>304</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>139</v>
+        <v>360</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5932,133 +6156,130 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C137" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>322</v>
+        <v>310</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>176</v>
+      <c r="E138" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A139" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B140" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F140" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>158</v>
+        <v>320</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="A141" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>330</v>
+      <c r="E142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>333</v>
+        <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>299</v>
@@ -6069,7 +6290,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6080,19 +6301,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>160</v>
@@ -6100,125 +6321,125 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>139</v>
+        <v>327</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A147" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B148" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="F148" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="E149" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>8</v>
+        <v>333</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>153</v>
+        <v>337</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>342</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D151" s="8"/>
       <c r="E151" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6229,19 +6450,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>347</v>
+        <v>303</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>160</v>
@@ -6249,21 +6470,75 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="F156" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="E157" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>161</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="390">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1898,21 +1898,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;CompatibleWheels Scale="0.57" Type="wheels_ford_f750" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_superheavy_single" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\t\t&lt;AddonSockets&gt;
 \t\t\t&lt;Socket Names="Trailer" Offset="(-3.89; 0.776; 0)" /&gt;
 \t\t&lt;/AddonSockets&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="ScautTrailer" Offset="(-3.89; 0.776; 0)" /&gt;
-\t\t&lt;/AddonSockets&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2018,43 +2006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t&lt;SuspensionSet
-\t\t_template="Ultimate"
-\t\tDamageCapacity="75"
-\t\tName="ford_f750_suspension_crawler"
-\t&gt;
-\t\t&lt;Suspension 
-\t\t\tDamping="0.15" 
-\t\t\tHeight="0.37" 
-\t\t\tStrength="0.012" 
-\t\t\tWheelType="front" 
-\t\t\tBrokenSuspensionMax="0.15" 
-\t\t\tSuspensionMin="-0.5" 
-\t\t/&gt;
-\t\t&lt;Suspension 
-\t\t\tDamping="0.15" 
-\t\t\tHeight="0.37" 
-\t\t\tStrength="0.012" 
-\t\t\tWheelType="rear" 
-\t\t\tBrokenSuspensionMax="0.15" 
-\t\t\tSuspensionMin="-0.5" 
-\t\t\t/&gt;
-\t\t&lt;GameData
-\t\t\tPrice="6000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_CRAWLER_DESC"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_SUSPENSION_CRAWLER_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,51 +2687,6 @@
     <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_SUPERHEAVY_MUDTIRES_4_NAME" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckTire&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_chains_single_1" Name="chains_1"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="6800"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="14"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_HEAVY_CHAINS_SINGLE_1_NAME" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel"&gt;
-\t\t\t&lt;WheelFriction _template="HeavyMudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Mudtires F5.0" UiName="ANGEL_SUPERHEAVY_MUDTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_2_SUPERHEAVY_MUDTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_apache_chain_1" Name="chaintires_angel"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="10"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Super Heavy Chaintires F5.0" UiName="ANGEL_SUPERHEAVY_CHAINTIRES" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3098,6 +3004,196 @@
 \t&lt;/AutomaticIK&gt;
 &lt;/TruckAddon&gt;
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Ultimate"
+\t\tDamageCapacity="75"
+\t\tName="ford_f750_suspension_crawler"
+\t&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.37" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="front" 
+\t\t\tBrokenSuspensionMax="0.35" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t/&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.37" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="rear" 
+\t\t\tBrokenSuspensionMax="0.35" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t\t/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_CRAWLER_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_CRAWLER_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;
+\t&lt;SuspensionSet
+\t\t_template="Ultimate"
+\t\tDamageCapacity="75"
+\t\tName="ford_f750_suspension_big_crawler"
+\t&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.67" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="front" 
+\t\t\tBrokenSuspensionMax="0.35" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t/&gt;
+\t\t&lt;Suspension 
+\t\t\tDamping="0.15" 
+\t\t\tHeight="0.67" 
+\t\t\tStrength="0.012" 
+\t\t\tWheelType="rear" 
+\t\t\tBrokenSuspensionMax="0.35" 
+\t\t\tSuspensionMin="-0.5" 
+\t\t\t/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="9999"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="Big Foot Crawler"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="Big_Foot_Crawler"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels Scale="0.57" Type="wheels_ford_f750" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.57" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.05" Scale="0.69" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.69" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(-1.7; -0.5; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(-1.7; 0; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低重心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(1; -1; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CenterOfMassOffset="(1; -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; 0)"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(0; 0; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CenterOfMassOffset="(0; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; 0)"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_1" Name="mudtires_angel_1"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_1" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_2" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_3" Name="mudtires_angel_3"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_3" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_4_cat745" Name="mudtires_angel_4"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_4" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3258,10 +3354,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3273,13 +3372,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3565,11 +3661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3716,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3639,8 +3735,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>368</v>
+      <c r="A4" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3659,8 +3755,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>369</v>
+      <c r="A5" s="15" t="s">
+        <v>365</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3679,8 +3775,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>368</v>
+      <c r="A6" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3699,8 +3795,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>368</v>
+      <c r="A7" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3719,8 +3815,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>368</v>
+      <c r="A8" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3742,8 +3838,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>368</v>
+      <c r="A9" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3762,8 +3858,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>368</v>
+      <c r="A10" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3782,8 +3878,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>370</v>
+      <c r="A11" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3802,8 +3898,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>368</v>
+      <c r="A12" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3833,8 +3929,8 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>368</v>
+      <c r="A14" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
@@ -3856,8 +3952,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>368</v>
+      <c r="A15" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -3879,8 +3975,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>368</v>
+      <c r="A16" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
@@ -3902,8 +3998,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>371</v>
+      <c r="A17" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -3925,8 +4021,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>368</v>
+      <c r="A18" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -3934,8 +4030,8 @@
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>359</v>
+      <c r="D18" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>95</v>
@@ -3948,8 +4044,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>368</v>
+      <c r="A19" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>46</v>
@@ -3971,8 +4067,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>368</v>
+      <c r="A20" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
@@ -3994,8 +4090,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>368</v>
+      <c r="A21" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
@@ -4017,8 +4113,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>372</v>
+      <c r="A22" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
@@ -4040,8 +4136,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>368</v>
+      <c r="A23" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -4074,8 +4170,8 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>360</v>
+      <c r="A25" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
@@ -4097,8 +4193,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>368</v>
+      <c r="A26" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
@@ -4120,8 +4216,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>368</v>
+      <c r="A27" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>74</v>
@@ -4143,8 +4239,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>368</v>
+      <c r="A28" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>78</v>
@@ -4166,8 +4262,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>368</v>
+      <c r="A29" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>80</v>
@@ -4176,10 +4272,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
@@ -4189,8 +4285,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>368</v>
+      <c r="A30" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>80</v>
@@ -4212,8 +4308,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>368</v>
+      <c r="A31" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>85</v>
@@ -4246,8 +4342,8 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>360</v>
+      <c r="A33" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
@@ -4280,8 +4376,8 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>360</v>
+      <c r="A35" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>108</v>
@@ -4303,8 +4399,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>360</v>
+      <c r="A36" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>112</v>
@@ -4326,8 +4422,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>360</v>
+      <c r="A37" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>117</v>
@@ -4349,8 +4445,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>360</v>
+      <c r="A38" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
@@ -4372,8 +4468,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>360</v>
+      <c r="A39" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>126</v>
@@ -4395,8 +4491,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>360</v>
+      <c r="A40" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
@@ -4418,34 +4514,34 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>374</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4460,8 +4556,8 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>360</v>
+      <c r="A44" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>134</v>
@@ -4480,8 +4576,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>360</v>
+      <c r="A45" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>134</v>
@@ -4511,8 +4607,8 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>360</v>
+      <c r="A47" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>141</v>
@@ -4531,8 +4627,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>360</v>
+      <c r="A48" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>142</v>
@@ -4562,8 +4658,8 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>360</v>
+      <c r="A50" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>147</v>
@@ -4582,8 +4678,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>360</v>
+      <c r="A51" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>147</v>
@@ -4602,8 +4698,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>360</v>
+      <c r="A52" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>147</v>
@@ -4625,8 +4721,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>360</v>
+      <c r="A53" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>147</v>
@@ -4645,8 +4741,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>360</v>
+      <c r="A54" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>147</v>
@@ -4679,8 +4775,8 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>360</v>
+      <c r="A56" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>170</v>
@@ -4699,8 +4795,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>360</v>
+      <c r="A57" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>170</v>
@@ -4719,26 +4815,26 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>360</v>
+      <c r="A58" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4753,8 +4849,8 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>360</v>
+      <c r="A60" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>175</v>
@@ -4773,8 +4869,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>360</v>
+      <c r="A61" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>175</v>
@@ -4796,8 +4892,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>360</v>
+      <c r="A62" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>198</v>
@@ -4827,8 +4923,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>360</v>
+      <c r="A64" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>201</v>
@@ -4847,8 +4943,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>360</v>
+      <c r="A65" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>201</v>
@@ -4881,8 +4977,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>360</v>
+      <c r="A67" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>205</v>
@@ -4901,8 +4997,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>360</v>
+      <c r="A68" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>205</v>
@@ -4932,8 +5028,8 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>360</v>
+      <c r="A70" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>209</v>
@@ -4952,8 +5048,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>361</v>
+      <c r="A71" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>209</v>
@@ -4986,8 +5082,8 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>360</v>
+      <c r="A73" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>212</v>
@@ -5006,8 +5102,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>361</v>
+      <c r="A74" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>212</v>
@@ -5026,8 +5122,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>361</v>
+      <c r="A75" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>212</v>
@@ -5049,209 +5145,209 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>360</v>
+      <c r="A78" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>360</v>
+      <c r="A83" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>360</v>
+      <c r="A88" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>236</v>
@@ -5260,49 +5356,49 @@
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>360</v>
+      <c r="A91" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>240</v>
@@ -5311,126 +5407,126 @@
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>360</v>
+      <c r="A94" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>360</v>
+      <c r="A95" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>360</v>
+      <c r="A98" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>245</v>
@@ -5439,72 +5535,72 @@
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>360</v>
+      <c r="A99" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>363</v>
+      <c r="A102" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>252</v>
@@ -5513,72 +5609,72 @@
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>363</v>
+      <c r="A103" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>364</v>
+      <c r="A106" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>257</v>
@@ -5587,72 +5683,81 @@
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>363</v>
+      <c r="A107" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>360</v>
+      <c r="A109" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>160</v>
+      <c r="E109" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5662,331 +5767,329 @@
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>360</v>
+      <c r="A111" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A112" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>360</v>
+      <c r="A113" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="G115" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G116" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="G125" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>310</v>
+      <c r="E126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>309</v>
+      <c r="A127" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>311</v>
+      <c r="E127" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>139</v>
@@ -5996,8 +6099,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>301</v>
+      <c r="A128" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6007,48 +6110,48 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>360</v>
+      <c r="A129" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>139</v>
+      <c r="E129" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
-        <v>360</v>
+      <c r="A130" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6058,11 +6161,11 @@
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>360</v>
+      <c r="A132" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
@@ -6078,17 +6181,17 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>360</v>
+      <c r="A133" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>153</v>
@@ -6098,105 +6201,105 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B134" s="8" t="s">
+      <c r="A134" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G134" s="1" t="s">
+      <c r="E137" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B135" s="12" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="G135" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6206,137 +6309,134 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>360</v>
+      <c r="A140" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C140" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>321</v>
+        <v>307</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
-        <v>360</v>
+      <c r="A141" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G141" s="1" t="s">
+      <c r="F144" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-    </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>360</v>
+      <c r="A145" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>329</v>
+      <c r="E145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
-        <v>360</v>
+      <c r="A146" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>158</v>
@@ -6344,7 +6444,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6354,146 +6454,146 @@
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
-        <v>360</v>
+      <c r="A148" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>360</v>
+      <c r="A149" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B149" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E153" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="8" t="s">
+      <c r="D154" s="8"/>
+      <c r="E154" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G151" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6503,42 +6603,96 @@
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
-        <v>360</v>
+      <c r="A156" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>346</v>
+        <v>300</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
-        <v>360</v>
+      <c r="A157" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>161</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>\t\t&lt;Average RadiusOffset="0.025" SoftForceScale="0.24" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3194,6 +3190,10 @@
 \t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_4" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3664,8 +3664,8 @@
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3765,18 +3765,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3785,18 +3785,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3805,18 +3805,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3828,10 +3828,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3848,18 +3848,18 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3868,18 +3868,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3888,18 +3888,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3908,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,232 +3930,232 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4171,168 +4171,168 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4343,30 +4343,30 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4377,145 +4377,145 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4526,27 +4526,27 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4557,47 +4557,47 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4608,47 +4608,47 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4659,113 +4659,113 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4776,70 +4776,70 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4850,70 +4850,70 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4924,50 +4924,50 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4978,47 +4978,47 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5029,50 +5029,50 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5083,90 +5083,90 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>388</v>
-      </c>
       <c r="G76" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5177,50 +5177,50 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5231,27 +5231,27 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5262,50 +5262,50 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5316,27 +5316,27 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5347,47 +5347,47 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5398,47 +5398,47 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5449,73 +5449,73 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5526,70 +5526,70 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5600,70 +5600,70 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5674,90 +5674,90 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F108" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>386</v>
-      </c>
       <c r="G109" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5768,27 +5768,27 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="G111" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5799,160 +5799,160 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="G115" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="D116" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="G116" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>296</v>
-      </c>
       <c r="G117" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>376</v>
-      </c>
       <c r="F118" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="G119" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5963,73 +5963,73 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G121" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="F123" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6040,67 +6040,67 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="G125" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G126" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6111,47 +6111,47 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6162,47 +6162,47 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6213,93 +6213,93 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="F137" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B138" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="D138" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="E138" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="F138" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>354</v>
-      </c>
       <c r="G138" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6310,47 +6310,47 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6361,90 +6361,90 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E143" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="G143" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6455,50 +6455,50 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E148" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>326</v>
-      </c>
       <c r="G148" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D149" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E149" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="F149" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6509,91 +6509,91 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="G151" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D153" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E153" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="F153" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="G154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6604,50 +6604,50 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D157" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="F157" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6658,42 +6658,42 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E159" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="G159" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -3120,32 +3120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CenterOfMassOffset="(0; 0; 0)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CenterOfMassOffset="(0; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>; 0)"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_1" Name="mudtires_angel_1"&gt;
 \t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
 \t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
@@ -3196,12 +3170,41 @@
     <t>\n\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;Twist
+\t\t\tCenterOfMassOffset="(0; 0; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Twist
+\t\t\tCenterOfMassOffset="(0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; 0)"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3273,6 +3276,12 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3320,7 +3329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3379,6 +3388,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3664,8 +3676,8 @@
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3828,7 +3840,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -4275,7 +4287,7 @@
         <v>348</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
@@ -5154,11 +5166,11 @@
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>387</v>
+      <c r="E76" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>389</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>383</v>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="395">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3185,7 +3185,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>-0.5</t>
     </r>
@@ -3199,12 +3198,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;TruckAddon&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n\t&lt;TruckData RepairsCapacity="450"/&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\addons\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>crane_aramatsu_forester.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3229,6 +3270,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3329,7 +3375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3391,6 +3437,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3673,11 +3722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -6604,89 +6653,90 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F158" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
@@ -6699,12 +6749,32 @@
         <v>8</v>
       </c>
       <c r="E160" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>160</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="401">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,11 +1627,6 @@
   </si>
   <si>
     <t>\t\t&lt;CompatibleWheels OffsetZ="-0.1" Scale="0.73" Type="wheels_heavy_single" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.76" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.76" Type="wheels_superheavy_single" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3211,7 +3206,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>n\t&lt;TruckData RepairsCapacity="450"/&gt;\n</t>
     </r>
@@ -3228,6 +3222,52 @@
   <si>
     <r>
       <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\addons\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>crane_aramatsu_forester.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_2_1\classes\wheels\wheels_superheavy_cat770g_double.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_MUDTIRES_SUPERHEAVY_CAT770G_DOUBLE_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_double_cat_770g" Name="mudtires_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="17900"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="1"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="CAT770G F8.0" UiName="CAT770G_DOUBLE_ANGEL" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wheels_superheavy_cat770g_double</t>
     </r>
     <r>
       <rPr>
@@ -3236,8 +3276,14 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>crane_aramatsu_forester.xml</t>
-    </r>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.76" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.76" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels Scale="0.9" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3245,7 +3291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3270,6 +3316,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3375,7 +3426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3440,6 +3491,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3722,11 +3779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3834,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3797,7 +3854,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3817,7 +3874,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3837,7 +3894,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3857,7 +3914,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3877,7 +3934,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3889,7 +3946,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3900,7 +3957,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3920,7 +3977,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3940,7 +3997,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3960,7 +4017,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3991,7 +4048,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
@@ -4014,7 +4071,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -4037,7 +4094,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -4060,7 +4117,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -4083,7 +4140,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -4092,7 +4149,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>94</v>
@@ -4106,7 +4163,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
@@ -4129,7 +4186,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -4152,7 +4209,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -4175,7 +4232,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -4198,7 +4255,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -4232,7 +4289,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
@@ -4255,7 +4312,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -4278,7 +4335,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>73</v>
@@ -4301,7 +4358,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>77</v>
@@ -4324,7 +4381,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>79</v>
@@ -4333,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
@@ -4347,7 +4404,7 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
@@ -4370,7 +4427,7 @@
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>84</v>
@@ -4392,125 +4449,125 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -4519,126 +4576,129 @@
         <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="C43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="F43" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -4647,100 +4707,100 @@
         <v>134</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>146</v>
@@ -4749,115 +4809,115 @@
         <v>147</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -4866,200 +4926,200 @@
         <v>134</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B58" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>204</v>
@@ -5068,103 +5128,103 @@
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>211</v>
@@ -5173,36 +5233,33 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,564 +5270,567 @@
         <v>211</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="F76" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="G77" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="E85" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F97" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="F100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="G104" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G104" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5778,1003 +5838,1023 @@
         <v>358</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E110" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="G109" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="G110" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-    </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>289</v>
+        <v>202</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>292</v>
+        <v>354</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F116" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F117" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="F119" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="19" t="s">
+      <c r="D120" s="18"/>
+      <c r="E120" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="G120" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="F119" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A121" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>310</v>
+        <v>354</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="F124" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A125" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-    </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A129" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A132" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>299</v>
+      <c r="E133" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-    </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>302</v>
+      <c r="E136" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B138" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="F139" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="G139" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A140" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F141" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-    </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>317</v>
-      </c>
+      <c r="A143" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B144" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>159</v>
+      <c r="F144" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C146" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D147" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="F147" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B149" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D149" s="8" t="s">
+      <c r="F149" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E149" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G149" s="1" t="s">
+      <c r="F150" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-    </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A151" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>138</v>
+      <c r="E152" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>295</v>
+        <v>328</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8" t="s">
+      <c r="D155" s="8"/>
+      <c r="E155" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G154" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B155" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="1" t="s">
+      <c r="C156" s="8"/>
+      <c r="D156" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="F156" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="F155" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
+      <c r="G156" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D158" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="F159" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F158" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F161" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>160</v>
       </c>
     </row>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -2234,32 +2234,6 @@
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
 \t&lt;/SuspensionSet&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;SuspensionSet
-\t\t_template="Active"
-\t\tBrokenWheelDamageMultiplier="2"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="230"
-\t\tName="zikz_605r_suspension_active"
-\t\tDeviationDelta=".002"
-\t&gt;
-\t\t&lt;Suspension Damping="0.2" Height="0.2" Strength="0.03" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.45" DeviationMax="0.15"/&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.101" Strength="0.8" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
-\t\t&lt;GameData
-\t\t\tPrice="11700"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_SUSPENSION_ACTIVE_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3274,7 +3248,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>.xml</t>
     </r>
@@ -3284,6 +3257,50 @@
     <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.76" Type="wheels_heavy_mudtires_tayga" /&gt;
 \t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.76" Type="wheels_superheavy_single" /&gt;
 \t\t&lt;CompatibleWheels Scale="0.9" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="zikz_605r_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Damping="0.2" Height="0.2" Strength="0.03" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.45" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.101" Strength="0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_ACTIVE_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3377,7 +3394,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3782,8 +3798,8 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3834,7 +3850,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3854,7 +3870,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -3874,7 +3890,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -3894,7 +3910,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3914,7 +3930,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3934,7 +3950,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3946,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3957,7 +3973,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3977,7 +3993,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3997,7 +4013,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4017,7 +4033,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -4048,7 +4064,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
@@ -4071,7 +4087,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -4094,7 +4110,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -4117,7 +4133,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -4140,7 +4156,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -4149,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>94</v>
@@ -4163,7 +4179,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
@@ -4186,7 +4202,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -4209,7 +4225,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -4232,7 +4248,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -4255,7 +4271,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -4289,7 +4305,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
@@ -4312,7 +4328,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -4335,7 +4351,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>73</v>
@@ -4358,7 +4374,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>77</v>
@@ -4381,7 +4397,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>79</v>
@@ -4390,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
@@ -4404,7 +4420,7 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
@@ -4427,7 +4443,7 @@
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>84</v>
@@ -4450,25 +4466,25 @@
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>397</v>
-      </c>
       <c r="G32" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4484,7 +4500,7 @@
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>87</v>
@@ -4518,7 +4534,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -4541,7 +4557,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>111</v>
@@ -4564,7 +4580,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>116</v>
@@ -4587,7 +4603,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>120</v>
@@ -4610,7 +4626,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -4633,7 +4649,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>127</v>
@@ -4656,7 +4672,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4667,22 +4683,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>369</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,7 +4714,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -4718,7 +4734,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>133</v>
@@ -4749,7 +4765,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>140</v>
@@ -4769,7 +4785,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
@@ -4800,7 +4816,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>146</v>
@@ -4820,7 +4836,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>146</v>
@@ -4840,7 +4856,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
@@ -4863,7 +4879,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>146</v>
@@ -4883,7 +4899,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>146</v>
@@ -4917,7 +4933,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -4937,7 +4953,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>169</v>
@@ -4957,25 +4973,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,7 +5007,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>174</v>
@@ -5011,7 +5027,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>174</v>
@@ -5034,7 +5050,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>197</v>
@@ -5065,7 +5081,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>200</v>
@@ -5085,7 +5101,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>200</v>
@@ -5119,7 +5135,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>204</v>
@@ -5139,7 +5155,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>204</v>
@@ -5170,7 +5186,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>208</v>
@@ -5190,7 +5206,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>208</v>
@@ -5224,7 +5240,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>211</v>
@@ -5244,7 +5260,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>211</v>
@@ -5264,7 +5280,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>211</v>
@@ -5287,7 +5303,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>211</v>
@@ -5296,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="F77" s="20" t="s">
-        <v>388</v>
-      </c>
       <c r="G77" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5318,7 +5334,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>216</v>
@@ -5338,7 +5354,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>216</v>
@@ -5372,7 +5388,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>223</v>
@@ -5403,7 +5419,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>224</v>
@@ -5423,7 +5439,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>224</v>
@@ -5435,7 +5451,7 @@
         <v>227</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>202</v>
@@ -5457,7 +5473,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>233</v>
@@ -5488,7 +5504,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>234</v>
@@ -5508,7 +5524,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>234</v>
@@ -5539,7 +5555,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>238</v>
@@ -5559,7 +5575,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>238</v>
@@ -5590,7 +5606,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>239</v>
@@ -5610,7 +5626,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>239</v>
@@ -5633,7 +5649,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>260</v>
@@ -5667,7 +5683,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>243</v>
@@ -5687,7 +5703,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>243</v>
@@ -5707,7 +5723,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>243</v>
@@ -5741,7 +5757,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>250</v>
@@ -5761,7 +5777,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>250</v>
@@ -5781,7 +5797,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>250</v>
@@ -5815,7 +5831,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>255</v>
@@ -5835,7 +5851,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>255</v>
@@ -5855,7 +5871,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>255</v>
@@ -5878,7 +5894,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>255</v>
@@ -5887,13 +5903,13 @@
         <v>8</v>
       </c>
       <c r="E110" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="F110" s="19" t="s">
-        <v>384</v>
-      </c>
       <c r="G110" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5909,7 +5925,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>265</v>
@@ -5940,7 +5956,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>268</v>
@@ -5960,7 +5976,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>268</v>
@@ -5972,7 +5988,7 @@
         <v>272</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>202</v>
@@ -5983,7 +5999,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>268</v>
@@ -6003,7 +6019,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>290</v>
@@ -6015,7 +6031,7 @@
         <v>286</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>287</v>
@@ -6026,7 +6042,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>295</v>
@@ -6044,12 +6060,12 @@
         <v>294</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>268</v>
@@ -6058,21 +6074,21 @@
         <v>6</v>
       </c>
       <c r="D119" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>374</v>
-      </c>
       <c r="F119" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>268</v>
@@ -6082,13 +6098,13 @@
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6104,7 +6120,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>280</v>
@@ -6124,7 +6140,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>280</v>
@@ -6147,10 +6163,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>6</v>
@@ -6158,8 +6174,8 @@
       <c r="D124" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>308</v>
+      <c r="E124" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>294</v>
@@ -6181,7 +6197,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>285</v>
@@ -6201,7 +6217,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>285</v>
@@ -6221,7 +6237,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>285</v>
@@ -6252,7 +6268,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>304</v>
@@ -6272,7 +6288,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>304</v>
@@ -6303,7 +6319,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>297</v>
@@ -6323,7 +6339,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>297</v>
@@ -6354,7 +6370,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>299</v>
@@ -6374,7 +6390,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>299</v>
@@ -6394,7 +6410,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>299</v>
@@ -6417,22 +6433,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="F139" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>263</v>
@@ -6440,7 +6456,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6451,10 +6467,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
@@ -6471,10 +6487,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
@@ -6491,7 +6507,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6502,30 +6518,30 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E144" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F144" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="G144" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
@@ -6542,10 +6558,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>8</v>
@@ -6562,19 +6578,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>294</v>
@@ -6585,7 +6601,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6596,19 +6612,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E149" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>159</v>
@@ -6616,19 +6632,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>294</v>
@@ -6639,7 +6655,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6650,19 +6666,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E152" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>159</v>
@@ -6670,10 +6686,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
@@ -6690,19 +6706,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>294</v>
@@ -6713,20 +6729,20 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>158</v>
@@ -6734,20 +6750,20 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>392</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>393</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="F156" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>263</v>
@@ -6755,7 +6771,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6766,10 +6782,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
@@ -6786,19 +6802,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B159" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>294</v>
@@ -6809,7 +6825,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6820,19 +6836,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E161" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>159</v>
@@ -6840,16 +6856,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>138</v>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="402">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3301,6 +3301,12 @@
 \t\t&lt;/GameData&gt;
 \t&lt;/SuspensionSet&gt;\n</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="ScautTrailer" Offset="(-3.89; 0.776; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3798,8 +3804,8 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -6010,6 +6016,9 @@
       <c r="D116" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>274</v>
       </c>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="413">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3309,12 +3309,102 @@
 \t\t&lt;/AddonSockets&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>western_star_49x</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_2_1\classes\trucks\western_star_49x.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Installed"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiffLockType="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="290"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_2_1\classes\trucks\western_star_49x_tuning\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>western_star_49x_air_conditioner_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3401,8 +3491,19 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3433,6 +3534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3448,7 +3555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3519,6 +3626,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3801,11 +3917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -6265,35 +6381,38 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
@@ -6306,45 +6425,45 @@
         <v>8</v>
       </c>
       <c r="E131" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
@@ -6356,46 +6475,46 @@
       <c r="C134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -6407,14 +6526,14 @@
       <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="8" t="s">
-        <v>301</v>
+      <c r="E137" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6424,75 +6543,75 @@
       <c r="B138" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>302</v>
+      <c r="C138" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C140" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E140" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F140" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
@@ -6505,45 +6624,45 @@
         <v>8</v>
       </c>
       <c r="E142" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
@@ -6552,17 +6671,17 @@
       <c r="B145" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>159</v>
+      <c r="E145" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6576,13 +6695,13 @@
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6592,52 +6711,52 @@
       <c r="B147" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E148" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F148" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
@@ -6646,52 +6765,52 @@
       <c r="B150" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F151" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
@@ -6703,165 +6822,167 @@
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>138</v>
+      <c r="E153" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>294</v>
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C155" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8" t="s">
+      <c r="D156" s="8"/>
+      <c r="E156" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F156" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="21" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B157" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E157" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="F157" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E160" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F160" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
@@ -6874,13 +6995,107 @@
         <v>8</v>
       </c>
       <c r="E162" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="428">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1441,22 +1441,6 @@
   <si>
     <t>\t\t&lt;AddonSockets&gt;
 \t\t\t&lt;Socket Names="SaddleHigh1" Offset="(-1.95; 1.65; -0)" /&gt;
-\t\t&lt;/AddonSockets&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="SaddleHigh1" Offset="(-1.95; 1.65; -0)" /&gt;
-\t\t\t&lt;Socket Names="FrameAddon" Offset="(-2.5; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-2.7; 1.75; 0)" ParentFrame="BoneChassis_cdt"&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
-\t\t\t&lt;/Socket&gt;
-\t\t\t&lt;Socket Names="FrameAddonTank" Offset="(-3.3; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
-\t\t\t&lt;Socket Names="BigCraneUsKolob" Offset="(-3.3; 1.75; 0)" /&gt;
-\t\t\t&lt;Socket Names="BigCraneRuKolob" Offset="(-3.5; 1.75; 0)" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonMaintainer" NamesBlock="Trailer, MinicraneUS" Offset="(-3.1; 0.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonSeismicVibrator" Offset="(0.0; 1.75; 0)" /&gt;
 \t\t&lt;/AddonSockets&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3393,10 +3377,124 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+      </rPr>
+      <t>western_star_49x_air_conditioner_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="SaddleHigh1" Offset="(-1.95; 1.65; -0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddon" Offset="(-2.5; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-2.7; 1.75; 0)" ParentFrame="BoneChassis_cdt"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t\t&lt;Socket Names="FrameAddonTank" Offset="(-3.3; 1.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="BigCraneUsKolob" Offset="(-3.3; 1.75; 0)" /&gt;
+\t\t\t&lt;Socket Names="BigCraneRuKolob" Offset="(-3.5; 1.75; 0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonMaintainer" NamesBlock="Trailer, MinicraneUS" Offset="(-3.1; 0.75; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonSeismicVibrator" Offset="(0.0; 1.75; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加 Add-On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t\t&lt;Socket Names="FrameAddon3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonSideboard3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_pacific_p12w.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Normal"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="pacific_p12w_suspension_soft"
+\t&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.03" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.5" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.1" Strength="0.03" WheelType="rear" BrokenSuspensionMax="0.4" SuspensionMin="-0.5" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6200"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_SOFT"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_SOFT"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加懸吊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高進氣口</t>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 2.13; 0)" Size="1.2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 3.13; 0)" Size="1.2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>western_star_49x_air_conditioner_1.xml</t>
-    </r>
+      <t>pacific_p12w_spot_light_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\pacific_p12w_spot_light_2.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3404,7 +3502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3429,6 +3527,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3555,7 +3658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3635,6 +3738,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3917,11 +4026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3972,7 +4081,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3992,7 +4101,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -4012,7 +4121,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -4032,7 +4141,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -4052,7 +4161,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -4072,7 +4181,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -4084,7 +4193,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -4095,7 +4204,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -4115,7 +4224,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -4135,7 +4244,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4155,7 +4264,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -4186,7 +4295,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
@@ -4209,7 +4318,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -4232,7 +4341,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -4255,7 +4364,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -4278,7 +4387,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -4287,7 +4396,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>94</v>
@@ -4301,7 +4410,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
@@ -4324,7 +4433,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -4347,7 +4456,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -4370,7 +4479,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -4393,7 +4502,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -4427,7 +4536,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
@@ -4450,7 +4559,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -4473,7 +4582,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>73</v>
@@ -4496,7 +4605,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>77</v>
@@ -4519,7 +4628,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>79</v>
@@ -4528,10 +4637,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
@@ -4542,7 +4651,7 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
@@ -4565,7 +4674,7 @@
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>84</v>
@@ -4588,25 +4697,25 @@
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>396</v>
-      </c>
       <c r="G32" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4622,7 +4731,7 @@
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>87</v>
@@ -4656,7 +4765,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -4679,7 +4788,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>111</v>
@@ -4702,7 +4811,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>116</v>
@@ -4725,7 +4834,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>120</v>
@@ -4748,7 +4857,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -4771,7 +4880,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>127</v>
@@ -4794,7 +4903,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4805,22 +4914,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4836,7 +4945,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -4856,7 +4965,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>133</v>
@@ -4887,7 +4996,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>140</v>
@@ -4907,7 +5016,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
@@ -4938,7 +5047,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>146</v>
@@ -4958,7 +5067,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>146</v>
@@ -4978,7 +5087,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
@@ -5001,7 +5110,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>146</v>
@@ -5021,7 +5130,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>146</v>
@@ -5030,16 +5139,16 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5055,7 +5164,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>169</v>
@@ -5075,7 +5184,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>169</v>
@@ -5095,25 +5204,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,7 +5238,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>174</v>
@@ -5149,7 +5258,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>174</v>
@@ -5172,10 +5281,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>134</v>
@@ -5184,15 +5293,15 @@
         <v>180</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5203,19 +5312,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>159</v>
@@ -5223,22 +5332,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>157</v>
@@ -5246,7 +5355,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5257,19 +5366,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>159</v>
@@ -5277,10 +5386,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -5297,7 +5406,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5308,16 +5417,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>152</v>
@@ -5328,22 +5437,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>157</v>
@@ -5351,7 +5460,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5362,19 +5471,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>159</v>
@@ -5382,10 +5491,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -5402,22 +5511,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>157</v>
@@ -5425,27 +5534,27 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="F77" s="20" t="s">
-        <v>387</v>
-      </c>
       <c r="G77" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5456,19 +5565,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>159</v>
@@ -5476,22 +5585,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>157</v>
@@ -5499,7 +5608,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5510,19 +5619,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>159</v>
@@ -5530,7 +5639,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5541,19 +5650,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>159</v>
@@ -5561,112 +5670,139 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="A86" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>234</v>
+      <c r="A89" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>424</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>425</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>234</v>
+      <c r="A90" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>427</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>138</v>
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>425</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5677,241 +5813,229 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="A93" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="A98" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="A102" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="A103" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>159</v>
@@ -5919,124 +6043,124 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="G110" s="19" t="s">
-        <v>381</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -6047,314 +6171,311 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="A113" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>157</v>
+        <v>8</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>288</v>
-      </c>
+      <c r="A116" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>286</v>
+        <v>352</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>289</v>
+        <v>265</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>374</v>
-      </c>
+      <c r="A118" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>367</v>
+      <c r="A119" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>375</v>
+        <v>267</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>381</v>
+        <v>6</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="A121" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
+        <v>352</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>159</v>
+        <v>376</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C123" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>157</v>
+      <c r="D123" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="A124" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>289</v>
+      <c r="D124" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="A125" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="A126" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>159</v>
@@ -6362,50 +6483,53 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>157</v>
+        <v>293</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6416,118 +6540,130 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>304</v>
+        <v>352</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>305</v>
+      <c r="E131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>304</v>
+        <v>352</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="8" t="s">
-        <v>306</v>
+      <c r="E132" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" s="1" t="s">
+      <c r="E136" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>172</v>
+      <c r="E137" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>138</v>
@@ -6537,74 +6673,59 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A138" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>309</v>
+      <c r="A141" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6615,141 +6736,144 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>305</v>
+      <c r="E142" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+      <c r="A144" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>315</v>
+        <v>352</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A146" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>138</v>
+      <c r="E147" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6760,342 +6884,436 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>294</v>
+        <v>311</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
+      <c r="A152" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
+        <v>311</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A154" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B156" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
+      <c r="F158" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="8" t="s">
-        <v>298</v>
+      <c r="E159" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B162" s="8" t="s">
+      <c r="C167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="F167" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F162" s="8" t="s">
+      <c r="E168" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="F168" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="F166" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="26" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B172" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="B167" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C167" s="26" t="s">
+      <c r="C172" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D172" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E172" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="F172" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="F167" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>263</v>
+      <c r="G172" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -3238,12 +3238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.76" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.76" Type="wheels_superheavy_single" /&gt;
-\t\t&lt;CompatibleWheels Scale="0.9" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>\n\t&lt;SuspensionSet
 \t\t_template="Active"
@@ -3431,15 +3425,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t&lt;SuspensionSet
+    <t>加懸吊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高進氣口</t>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 2.13; 0)" Size="1.2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 3.13; 0)" Size="1.2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>pacific_p12w_spot_light_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\pacific_p12w_spot_light_2.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;SuspensionSet
 \t\t_template="Normal"
 \t\tBrokenWheelDamageMultiplier="2"
-\t\tCriticalDamageThreshold="0.6"
+\n\t\tCriticalDamageThreshold="0.6"
 \t\tDamageCapacity="260"
 \t\tName="pacific_p12w_suspension_soft"
 \t&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.03" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.5" /&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.1" Strength="0.03" WheelType="rear" BrokenSuspensionMax="0.4" SuspensionMin="-0.5" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.3" Strength="0.04" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.05" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
 \t\t&lt;GameData
 \t\t\tPrice="6200"
 \t\t\tUnlockByExploration="false"
@@ -3452,49 +3487,35 @@
 \t\t\t\tUiName="UI_SUSPENSION_SOFT"
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加懸吊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高進氣口</t>
-  </si>
-  <si>
-    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 2.13; 0)" Size="1.2" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Intake Dir="(1; 0; 0)" Origin="(3.91; 3.13; 0)" Size="1.2" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pacific_p12w_spot_light_1.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\classes\trucks\pacific_p12w_tuning\pacific_p12w_spot_light_2.xml</t>
+\t&lt;/SuspensionSet&gt;
+\t&lt;SuspensionSet
+\t\t_template="Normal"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="pacific_p12w_suspension_tayga"
+\t&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.5" Strength="0.04" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.05" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6200"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_TAYGA"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_TAYGA"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3603,7 +3624,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3658,7 +3678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3726,9 +3746,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4029,8 +4046,8 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5293,7 +5310,7 @@
         <v>180</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>181</v>
@@ -5681,8 +5698,8 @@
       <c r="D85" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E85" s="23" t="s">
-        <v>398</v>
+      <c r="E85" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>201</v>
@@ -5698,68 +5715,68 @@
       <c r="B86" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="F86" s="26"/>
+      <c r="G86" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="C87" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="E87" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
         <v>416</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>417</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28" t="s">
+      <c r="D88" s="27"/>
+      <c r="E88" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B89" s="27" t="s">
         <v>422</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>424</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
@@ -5770,19 +5787,19 @@
       <c r="E89" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="F89" s="28" t="s">
-        <v>425</v>
+      <c r="F89" s="27" t="s">
+        <v>423</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>427</v>
+      <c r="A90" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>425</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
@@ -5793,8 +5810,8 @@
       <c r="E90" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="F90" s="28" t="s">
-        <v>425</v>
+      <c r="F90" s="27" t="s">
+        <v>423</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>262</v>
@@ -6351,7 +6368,7 @@
         <v>272</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>273</v>
@@ -6518,7 +6535,7 @@
         <v>306</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>293</v>
@@ -7122,7 +7139,7 @@
         <v>391</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>387</v>
@@ -7243,31 +7260,31 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
+      <c r="A169" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="E170" s="25" t="s">
+      <c r="F170" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>406</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>160</v>
@@ -7275,32 +7292,32 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E171" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F171" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="F171" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="26" t="s">
+      <c r="A172" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="B172" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="25" t="s">
         <v>178</v>
       </c>
       <c r="D172" s="1" t="s">

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -3401,18 +3401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
-\t\t\t&lt;/Socket&gt;
-\t\t\t&lt;Socket Names="FrameAddon3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonSideboard3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
-\t\t&lt;/AddonSockets&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_pacific_p12w.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3516,6 +3504,24 @@
     <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
 \t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
 \t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t\t&lt;Socket Names="FrameAddon3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonSideboard3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;
+\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="MinicraneUS"  Offset="(-1; 1.82; 0)"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.07)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.07)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4046,8 +4052,8 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5699,7 +5705,7 @@
         <v>226</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>201</v>
@@ -5721,8 +5727,8 @@
       <c r="D86" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>414</v>
+      <c r="E86" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="1" t="s">
@@ -5731,28 +5737,28 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>223</v>
@@ -5762,21 +5768,21 @@
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="F88" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="F88" s="27" t="s">
-        <v>421</v>
-      </c>
       <c r="G88" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
@@ -5788,7 +5794,7 @@
         <v>349</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>262</v>
@@ -5796,10 +5802,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>425</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
@@ -5811,7 +5817,7 @@
         <v>349</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>262</v>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3039,10 +3039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CenterOfMassOffset="(-1.7; 0; 0)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>降低重心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3454,6 +3450,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t\t&lt;Socket Names="FrameAddon3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t\t&lt;Socket Names="FrameAddonSideboard3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
+\t\t&lt;/AddonSockets&gt;
+\t\t&lt;AddonSockets&gt;
+\t\t\t&lt;Socket Names="MinicraneUS"  Offset="(-1; 1.82; 0)"&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.07)" /&gt;
+\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.07)" /&gt;
+\t\t\t&lt;/Socket&gt;
+\t\t&lt;/AddonSockets&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>krs_58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_2_2\classes\trucks\krs_58_bandit.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>450"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\classes\engines\e_ru_truck_old.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\t\t\t\tUiName="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>UI_ENGINE_RU_TRUCK_OLD_3_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ru_truck_old.xml</t>
+  </si>
+  <si>
+    <t>&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.08" Scale="0.65" Type="wheels_medium_mudtires_actaeon" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.08" Scale="0.71" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(-1.7; 0; 0)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterOfMassOffset="(0.3; 0; 0)"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CenterOfMassOffset="(0.3; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; 0)"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_2_2\classes\suspensions\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>s_krs_58_bandit.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\t\t\t\tUiName="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>UI_SUSPENSION_DEFAULT_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加主動懸吊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t&lt;Engine
+\t\t_template="RUTruckOldEngine"
+\t\tCriticalDamageThreshold="0.5"
+\t\tDamageCapacity="120"
+\t\tDamagedConsumptionModifier="2.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_old_engine_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"
+\t\tTorque="555000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="33900"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU_TRUCK_OLD_ENGINE_SUPER"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_RU_TRUCK_OLD_ENGINE_SUPER"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="krs58_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.022" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="KOLOB_74941_ACTIVE_SUSPENSION"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>\t&lt;SuspensionSet
 \t\t_template="Normal"
 \t\tBrokenWheelDamageMultiplier="2"
@@ -3497,31 +3752,30 @@
 \t\t\t\tUiName="UI_SUSPENSION_TAYGA"
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;
+\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="pacific_p12w_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.022" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="KOLOB_74941_ACTIVE_SUSPENSION"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
 \t&lt;/SuspensionSet&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
-\t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.1)" /&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.1)" /&gt;
-\t\t\t&lt;/Socket&gt;
-\t\t\t&lt;Socket Names="FrameAddon3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
-\t\t\t&lt;Socket Names="FrameAddonSideboard3" NamesBlock="PacificP12wSpareWheel" Offset="(-3.5; 1.82; 0)" /&gt;
-\t\t&lt;/AddonSockets&gt;
-\t\t&lt;AddonSockets&gt;
-\t\t\t&lt;Socket Names="MinicraneUS"  Offset="(-1; 1.82; 0)"&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; -0.07)" /&gt;
-\t\t\t\t&lt;ExtraParent Frame="BoneChassis_cdt" Offset="(0; 0; 0.07)" /&gt;
-\t\t\t&lt;/Socket&gt;
-\t\t&lt;/AddonSockets&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3529,7 +3783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3554,6 +3808,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -3684,7 +3943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3767,6 +4026,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4049,11 +4314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4216,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -4539,50 +4804,50 @@
       <c r="E23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
+      <c r="F23" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>360</v>
+      <c r="A26" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -4591,16 +4856,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4608,22 +4873,22 @@
         <v>360</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4631,22 +4896,22 @@
         <v>360</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4654,22 +4919,22 @@
         <v>360</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4683,16 +4948,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4700,136 +4965,136 @@
         <v>360</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C32" s="22" t="s">
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4837,22 +5102,22 @@
         <v>352</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,7 +5125,7 @@
         <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -4869,13 +5134,13 @@
         <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,22 +5148,22 @@
         <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,85 +5171,88 @@
         <v>352</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
@@ -4997,96 +5265,96 @@
         <v>134</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
@@ -5099,13 +5367,13 @@
         <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5116,19 +5384,16 @@
         <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5139,16 +5404,19 @@
         <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5159,51 +5427,51 @@
         <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -5216,68 +5484,68 @@
         <v>134</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
@@ -5287,19 +5555,16 @@
         <v>174</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,51 +5572,54 @@
         <v>352</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -5361,51 +5629,51 @@
         <v>199</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
@@ -5418,103 +5686,103 @@
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>210</v>
@@ -5523,13 +5791,13 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,71 +5808,71 @@
         <v>210</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="F77" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="G78" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
@@ -5614,82 +5882,82 @@
         <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
@@ -5699,19 +5967,16 @@
         <v>223</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>426</v>
+        <v>224</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,169 +5986,172 @@
       <c r="B86" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="27" t="s">
-        <v>413</v>
+      <c r="D86" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F86" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>412</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>414</v>
+      <c r="A87" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>425</v>
       </c>
       <c r="F87" s="26"/>
-      <c r="G87" s="27" t="s">
-        <v>417</v>
+      <c r="G87" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>420</v>
-      </c>
+      <c r="E88" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F88" s="26"/>
       <c r="G88" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>349</v>
+        <v>414</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>262</v>
+        <v>419</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>349</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
@@ -5896,45 +6164,45 @@
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
@@ -5947,67 +6215,64 @@
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,54 +6280,57 @@
         <v>352</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
@@ -6075,13 +6343,13 @@
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,55 +6360,55 @@
         <v>242</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>249</v>
@@ -6149,13 +6417,13 @@
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,55 +6434,55 @@
         <v>249</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>254</v>
@@ -6223,119 +6491,119 @@
         <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E116" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F115" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="G116" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
@@ -6345,19 +6613,16 @@
         <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>271</v>
+        <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,138 +6636,141 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>287</v>
+        <v>201</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>290</v>
+      <c r="B122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>286</v>
+        <v>398</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>369</v>
+      <c r="D124" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>352</v>
+      <c r="A125" s="18" t="s">
+        <v>366</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="19" t="s">
+      <c r="D126" s="18"/>
+      <c r="E126" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G126" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="F125" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
@@ -6512,74 +6780,74 @@
         <v>279</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>307</v>
+        <v>352</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="E130" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
@@ -6592,13 +6860,13 @@
         <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6612,13 +6880,13 @@
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6628,52 +6896,52 @@
       <c r="B134" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -6686,45 +6954,45 @@
         <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
@@ -6736,46 +7004,46 @@
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
@@ -6787,14 +7055,14 @@
       <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>300</v>
+      <c r="E143" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6804,75 +7072,75 @@
       <c r="B144" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>301</v>
+      <c r="C144" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C146" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D146" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E146" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F146" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
@@ -6885,45 +7153,45 @@
         <v>8</v>
       </c>
       <c r="E148" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
@@ -6932,17 +7200,17 @@
       <c r="B151" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>159</v>
+      <c r="E151" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6956,13 +7224,13 @@
         <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6972,52 +7240,52 @@
       <c r="B153" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F154" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
@@ -7026,52 +7294,52 @@
       <c r="B156" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F157" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
@@ -7083,167 +7351,167 @@
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>138</v>
+      <c r="E159" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>293</v>
+      <c r="C160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8" t="s">
+      <c r="D162" s="8"/>
+      <c r="E162" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F162" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="21" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B162" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="F163" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F162" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="G162" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D166" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E166" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F166" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
@@ -7256,87 +7524,204 @@
         <v>8</v>
       </c>
       <c r="E168" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-    </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F170" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A170" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="E171" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E172" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="F172" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="F171" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="G171" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="B172" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="C173" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E173" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="F173" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F172" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="G172" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F176" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="G177" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="29" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="449">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3776,6 +3776,62 @@
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
 \t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="24"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="30"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;Wheel&gt;
+\t\t&lt;SecondAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="30"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t\t&lt;RearAxle
+\t\t\tConnectedToHandbrake="true"
+\t\t\tLocation="rear"
+\t\t\tTorque="default"
+\t\t/&gt;
+\t\t&lt;FirstAxle
+\t\t\tLocation="front"
+\t\t\tSteeringAngle="45"
+\t\t\tSteeringCastor="0"
+\t\t\tSteeringJointOffset="0.25"
+\t\t\tTorque="default"
+\t\t\tParentFrame="BoneCabin_cdt"
+\t\t/&gt;
+\t&lt;/Wheel&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4314,11 +4370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7724,6 +7780,26 @@
         <v>442</v>
       </c>
     </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="463">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3834,12 +3834,143 @@
 \t&lt;/Wheel&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_2\classes\wheels\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wheels_scout_apache_1.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;UiDesc UiDesc="UI_TIRE_CHAINS_DESC" UiName="UI_TIRE_SCOUT_CHAIN_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;TruckTire
+\t\t\t_template="ScoutChains"
+\t\t\tMesh="wheels/tire_scout_apache_mudtires_1"
+\t\t\tName="super_mudtires_1"
+\t\t\tWidth="0.797"
+\t\t&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="15300"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="7"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="APACHE_SUPER_WHEEL" UiName="UI_APACHE_SUPER_WHEEL" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels_scout_apache_1.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_2\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chevy_apache.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chevy_apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_us_scout_old, e_us_scout_old_ck1500"</t>
+  </si>
+  <si>
+    <r>
+      <t>Type="e_us_scout_old, e_us_scout_old_ck1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, e_us_scout_modern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="95"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3946,6 +4077,12 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3999,7 +4136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4088,6 +4225,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4370,11 +4516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5086,94 +5232,94 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,22 +5327,22 @@
         <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,7 +5350,7 @@
         <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -5213,13 +5359,13 @@
         <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5227,22 +5373,22 @@
         <v>352</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5250,85 +5396,88 @@
         <v>352</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
@@ -5341,96 +5490,96 @@
         <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -5443,13 +5592,13 @@
         <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5460,19 +5609,16 @@
         <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5483,16 +5629,19 @@
         <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5503,51 +5652,51 @@
         <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
@@ -5560,68 +5709,68 @@
         <v>134</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
@@ -5631,19 +5780,16 @@
         <v>174</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,51 +5797,54 @@
         <v>352</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
@@ -5705,51 +5854,51 @@
         <v>199</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
@@ -5762,103 +5911,103 @@
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>210</v>
@@ -5867,13 +6016,13 @@
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,71 +6033,71 @@
         <v>210</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F79" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G79" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
@@ -5958,82 +6107,82 @@
         <v>215</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
@@ -6043,19 +6192,16 @@
         <v>223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,83 +6211,83 @@
       <c r="B87" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="27" t="s">
-        <v>412</v>
+      <c r="D87" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F87" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G87" s="1" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>413</v>
+      <c r="A88" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="27" t="s">
-        <v>416</v>
+      <c r="G88" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>223</v>
+      <c r="B89" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>419</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F89" s="26"/>
       <c r="G89" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>349</v>
+        <v>414</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>262</v>
+        <v>419</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6149,7 +6295,7 @@
         <v>422</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>6</v>
@@ -6168,66 +6314,69 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
@@ -6240,45 +6389,45 @@
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
@@ -6291,67 +6440,64 @@
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6359,54 +6505,57 @@
         <v>352</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
@@ -6419,13 +6568,13 @@
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,55 +6585,55 @@
         <v>242</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>249</v>
@@ -6493,13 +6642,13 @@
         <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6510,55 +6659,55 @@
         <v>249</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>254</v>
@@ -6567,119 +6716,119 @@
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E117" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F117" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="G116" s="19" t="s">
+      <c r="G117" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
@@ -6689,19 +6838,16 @@
         <v>267</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>271</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6715,138 +6861,141 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>287</v>
+        <v>201</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>290</v>
+      <c r="B123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>286</v>
+        <v>398</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>369</v>
+      <c r="D125" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>352</v>
+      <c r="A126" s="18" t="s">
+        <v>366</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="29" t="s">
+      <c r="D127" s="18"/>
+      <c r="E127" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="F126" s="19" t="s">
+      <c r="F127" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="G126" s="19" t="s">
+      <c r="G127" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
@@ -6856,74 +7005,74 @@
         <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>307</v>
+        <v>352</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
@@ -6936,13 +7085,13 @@
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6956,13 +7105,13 @@
         <v>8</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6972,52 +7121,52 @@
       <c r="B135" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F136" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
@@ -7030,45 +7179,45 @@
         <v>8</v>
       </c>
       <c r="E138" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
@@ -7080,46 +7229,46 @@
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
@@ -7131,14 +7280,14 @@
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="8" t="s">
-        <v>300</v>
+      <c r="E144" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -7148,75 +7297,75 @@
       <c r="B145" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>301</v>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C147" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D147" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E147" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F147" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
@@ -7229,45 +7378,45 @@
         <v>8</v>
       </c>
       <c r="E149" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
@@ -7276,17 +7425,17 @@
       <c r="B152" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>159</v>
+      <c r="E152" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -7300,13 +7449,13 @@
         <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7316,52 +7465,52 @@
       <c r="B154" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F155" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
@@ -7370,52 +7519,52 @@
       <c r="B157" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F158" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
@@ -7427,167 +7576,167 @@
       <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>138</v>
+      <c r="E160" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>293</v>
+      <c r="C161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C162" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8" t="s">
+      <c r="D163" s="8"/>
+      <c r="E163" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F163" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="21" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B164" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E164" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F164" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D167" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E167" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F167" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
@@ -7600,45 +7749,45 @@
         <v>8</v>
       </c>
       <c r="E169" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -7648,71 +7797,71 @@
         <v>401</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E173" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="F172" s="24" t="s">
+      <c r="F173" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B174" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C174" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E174" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="F174" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -7721,20 +7870,17 @@
       <c r="B176" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="F176" s="29" t="s">
-        <v>433</v>
+      <c r="C176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,59 +7891,130 @@
         <v>427</v>
       </c>
       <c r="C177" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C178" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F177" s="29" t="s">
+      <c r="F178" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="G177" s="19" t="s">
+      <c r="G178" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B178" s="29" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="29" t="s">
+      <c r="D179" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G178" s="29" t="s">
+      <c r="G179" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -3562,37 +3562,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.08" Scale="0.71" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CenterOfMassOffset="(-1.7; 0; 0)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CenterOfMassOffset="(0.3; 0; 0)"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CenterOfMassOffset="(0.3; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>-0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>; 0)"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3847,7 +3821,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>wheels_scout_apache_1.xml</t>
     </r>
@@ -3898,7 +3871,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>chevy_apache.xml</t>
     </r>
@@ -3914,6 +3886,88 @@
   <si>
     <r>
       <t>Type="e_us_scout_old, e_us_scout_old_ck1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>, e_us_scout_modern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="95"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>8" Scale="0.71" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CenterOfMassOffset="(0.3; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-0.</t>
     </r>
     <r>
       <rPr>
@@ -3922,7 +3976,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>, e_us_scout_modern</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -3930,38 +3984,7 @@
         <color theme="1"/>
         <rFont val="SimSun"/>
       </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="95"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>190</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
+      <t>; 0)"</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3970,7 +3993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3995,6 +4018,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -4136,7 +4164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4234,6 +4262,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4520,7 +4551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5027,7 +5058,7 @@
         <v>432</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>433</v>
@@ -5233,25 +5264,25 @@
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="E34" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="F34" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6293,7 @@
         <v>415</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="27" t="s">
@@ -6977,7 +7008,7 @@
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>378</v>
@@ -7896,8 +7927,8 @@
       <c r="D177" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="E177" s="29" t="s">
-        <v>436</v>
+      <c r="E177" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="F177" s="29" t="s">
         <v>433</v>
@@ -7917,10 +7948,10 @@
         <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F178" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>462</v>
       </c>
       <c r="G178" s="19" t="s">
         <v>379</v>
@@ -7931,27 +7962,27 @@
         <v>352</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>427</v>
@@ -7960,10 +7991,10 @@
         <v>8</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>245</v>
@@ -7971,7 +8002,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7982,39 +8013,39 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C182" s="31" t="s">
         <v>134</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="G182" s="31" t="s">
         <v>458</v>
-      </c>
-      <c r="F182" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="G182" s="31" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C183" s="31" t="s">
         <v>134</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F183" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -1786,13 +1786,6 @@
   </si>
   <si>
     <t>\t\t&lt;CompatibleWheels Scale="0.63" Type="wheels_heavy_single" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;
-\t\t&lt;Camera Center="(-1.5; 0; 0)" ParentFrame="BoneCabin_cdt"&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3974,7 +3967,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>6</t>
     </r>
@@ -3986,6 +3978,12 @@
       </rPr>
       <t>; 0)"</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4109,7 +4107,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4550,8 +4547,8 @@
   <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -4642,7 +4639,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -4662,7 +4659,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -4702,7 +4699,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -4714,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -4725,7 +4722,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -4765,7 +4762,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -4917,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>94</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -5000,7 +4997,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -5046,25 +5043,25 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" s="28" t="s">
+      <c r="G24" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5080,7 +5077,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>68</v>
@@ -5126,7 +5123,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>73</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>77</v>
@@ -5172,7 +5169,7 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
@@ -5181,10 +5178,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>21</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>79</v>
@@ -5218,7 +5215,7 @@
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>84</v>
@@ -5241,48 +5238,48 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>394</v>
-      </c>
       <c r="G33" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="E34" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="F34" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>452</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,7 +5295,7 @@
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>87</v>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>107</v>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>111</v>
@@ -5378,7 +5375,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>116</v>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>120</v>
@@ -5424,7 +5421,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>125</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>127</v>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5481,22 +5478,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>366</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>367</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5512,7 +5509,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>133</v>
@@ -5532,7 +5529,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>133</v>
@@ -5563,7 +5560,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>140</v>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>141</v>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
@@ -5634,7 +5631,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>146</v>
@@ -5654,7 +5651,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>146</v>
@@ -5677,7 +5674,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>146</v>
@@ -5697,7 +5694,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>146</v>
@@ -5731,7 +5728,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>169</v>
@@ -5751,7 +5748,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>169</v>
@@ -5771,25 +5768,25 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5805,7 +5802,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>174</v>
@@ -5825,7 +5822,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>174</v>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>196</v>
@@ -5860,7 +5857,7 @@
         <v>180</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>181</v>
@@ -5879,7 +5876,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>199</v>
@@ -5899,7 +5896,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>199</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>203</v>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>203</v>
@@ -5984,7 +5981,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>207</v>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>207</v>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>210</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>210</v>
@@ -6078,7 +6075,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>210</v>
@@ -6101,7 +6098,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>210</v>
@@ -6110,13 +6107,13 @@
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="F79" s="20" t="s">
-        <v>385</v>
-      </c>
       <c r="G79" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6132,7 +6129,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>215</v>
@@ -6152,7 +6149,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>215</v>
@@ -6186,7 +6183,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>222</v>
@@ -6217,7 +6214,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>223</v>
@@ -6237,7 +6234,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>223</v>
@@ -6249,7 +6246,7 @@
         <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>201</v>
@@ -6260,7 +6257,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>223</v>
@@ -6269,40 +6266,40 @@
         <v>6</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>223</v>
@@ -6312,59 +6309,59 @@
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F90" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="F90" s="27" t="s">
-        <v>419</v>
-      </c>
       <c r="G90" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B92" s="27" t="s">
         <v>422</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>423</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6380,7 +6377,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>232</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>233</v>
@@ -6431,7 +6428,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>233</v>
@@ -6462,7 +6459,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>237</v>
@@ -6482,7 +6479,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>237</v>
@@ -6513,7 +6510,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>238</v>
@@ -6533,7 +6530,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>238</v>
@@ -6556,25 +6553,25 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6590,7 +6587,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>242</v>
@@ -6610,7 +6607,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>242</v>
@@ -6630,7 +6627,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>242</v>
@@ -6664,7 +6661,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>249</v>
@@ -6684,7 +6681,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>249</v>
@@ -6704,7 +6701,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>249</v>
@@ -6716,10 +6713,10 @@
         <v>251</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>157</v>
@@ -6738,19 +6735,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>159</v>
@@ -6758,10 +6755,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
@@ -6778,19 +6775,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>241</v>
@@ -6801,27 +6798,27 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F117" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="F117" s="19" t="s">
-        <v>381</v>
-      </c>
       <c r="G117" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6832,19 +6829,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>159</v>
@@ -6852,7 +6849,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6863,19 +6860,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>159</v>
@@ -6883,19 +6880,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>201</v>
@@ -6906,120 +6903,120 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="G123" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="D124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="G124" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F125" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="G125" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>372</v>
-      </c>
       <c r="F126" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F127" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="G127" s="19" t="s">
         <v>378</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -7030,19 +7027,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>159</v>
@@ -7050,19 +7047,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>241</v>
@@ -7073,30 +7070,30 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -7107,19 +7104,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>245</v>
@@ -7127,19 +7124,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>159</v>
@@ -7147,10 +7144,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
@@ -7167,19 +7164,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>42</v>
@@ -7190,7 +7187,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -7201,10 +7198,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
@@ -7213,7 +7210,7 @@
         <v>135</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>159</v>
@@ -7221,16 +7218,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>138</v>
@@ -7241,7 +7238,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -7252,10 +7249,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
@@ -7272,16 +7269,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>152</v>
@@ -7292,7 +7289,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -7303,10 +7300,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
@@ -7323,16 +7320,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>152</v>
@@ -7343,22 +7340,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>157</v>
@@ -7366,30 +7363,30 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="D147" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="F147" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F147" s="11" t="s">
-        <v>350</v>
-      </c>
       <c r="G147" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -7400,10 +7397,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>8</v>
@@ -7412,7 +7409,7 @@
         <v>135</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>159</v>
@@ -7420,16 +7417,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>138</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -7451,30 +7448,30 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E152" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="G152" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
@@ -7483,7 +7480,7 @@
         <v>175</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>159</v>
@@ -7491,10 +7488,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>8</v>
@@ -7511,22 +7508,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D155" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E155" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E155" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F155" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>157</v>
@@ -7534,7 +7531,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7545,19 +7542,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E157" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>159</v>
@@ -7565,22 +7562,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D158" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E158" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="F158" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>157</v>
@@ -7588,7 +7585,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7599,19 +7596,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>159</v>
@@ -7619,10 +7616,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
@@ -7639,22 +7636,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D162" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E162" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E162" s="8" t="s">
-        <v>330</v>
-      </c>
       <c r="F162" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>157</v>
@@ -7662,20 +7659,20 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F163" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>158</v>
@@ -7683,30 +7680,30 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B164" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B164" s="21" t="s">
-        <v>390</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="F164" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="F164" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="G164" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7717,16 +7714,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>152</v>
@@ -7737,22 +7734,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D167" s="8" t="s">
+      <c r="E167" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E167" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="F167" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>157</v>
@@ -7760,7 +7757,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7771,19 +7768,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E169" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>159</v>
@@ -7791,16 +7788,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>138</v>
@@ -7811,7 +7808,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -7822,19 +7819,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="F172" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>404</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>160</v>
@@ -7842,19 +7839,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E173" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F173" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>159</v>
@@ -7862,30 +7859,30 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>408</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>409</v>
       </c>
       <c r="C174" s="25" t="s">
         <v>178</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E174" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="F174" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="F174" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="G174" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7896,19 +7893,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>159</v>
@@ -7916,22 +7913,22 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C177" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>157</v>
@@ -7939,62 +7936,62 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F178" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>245</v>
@@ -8002,7 +7999,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8013,39 +8010,39 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C182" s="31" t="s">
         <v>134</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F182" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="F182" s="31" t="s">
+      <c r="G182" s="31" t="s">
         <v>457</v>
-      </c>
-      <c r="G182" s="31" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C183" s="31" t="s">
         <v>134</v>
       </c>
       <c r="E183" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="F183" s="31" t="s">
         <v>459</v>
-      </c>
-      <c r="F183" s="31" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="479">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Country="RU"</t>
-  </si>
-  <si>
     <t>Country=""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AngelSoft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,87 +94,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\t\t&lt;Average RadiusOffset="0.025" SoftForceScale="0.24" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Offroad\n\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="0.8"
-\t\t\tSubstanceFriction="1.5"
-\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Offroad\n\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="4.0"
-\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Mudtires
-\t\t\tBodyFriction="2.0"
-\t\t\tBodyFrictionAsphalt="0.5"
-\t\t\tSubstanceFriction="2.0"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Mudtires
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="5.0"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;HeavyMudtires
-\t\t\tBodyFriction="1.7"
-\t\t\tBodyFrictionAsphalt="0.5"
-\t\t\tSubstanceFriction="3.0"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;HeavyMudtires
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="5.0"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Chains
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.2"
-\t\t\tIsIgnoreIce="true"
-\t\t\tSubstanceFriction="1.3"
-\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
-\t\t/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Chains
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="5.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
-\t\t/&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,22 +258,6 @@
   </si>
   <si>
     <t>取消探索才能使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offroad Wheel 抓地力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mudtires 抓地力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeavyMudtires 抓地力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chains 抓地力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,85 +694,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel"&gt;
-\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="7400"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="13"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel" UiName="SCOUT_BTR_ANGEL" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel_ice"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="7400"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="13"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel Ice" UiName="SCOUT_BTR_ANGEL_ICE" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\n\t\t&lt;TruckRim Mesh="wheels/rim_heavy_mudtires_single_tayga_1" Name="rim_2"&gt;
 \t\t\t&lt;GameData&gt;
 \t\t\t\t&lt;UiDesc UiDesc="UI_RIM_HEAVY_MUDTIRES_SINGLE_TAYGA_1_DESC" UiName="UI_RIM_HEAVY_MUDTIRES_SINGLE_TAYGA_1_NAME" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckRim&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_tires"&gt;
-\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="1"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F5" UiName="YAR_87_ANGEL_TIRES_5" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_ice_tires"&gt;
-\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="4.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="12000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="1"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F8" UiName="YAR_87_ANGEL_TIRES_8" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel"&gt;
-\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="13"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Mudtires Tayga F5.0" UiName="ANGEL_MUDTIRES_TAYGA" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel_2"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="13"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Mudtires Tayga F8.0" UiName="ANGEL_2_MUDTIRES_TAYGA" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -890,19 +717,6 @@
 \t\t\t\t&lt;UiDesc UiDesc="UI_RIM_SCOUT_APACHE_1_DESC" UiName="UI_RIM_SCOUT_APACHE_1_NAME" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckRim&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="ScoutChains" Mesh="wheels/tire_scout_mudtires_1" Name="mudtires_super" Width="0.797"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="15100"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="7"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel Tires" UiName="UI_TIRE_SCOUT_MUDTIRES_1_NAME" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2718,10 +2532,6 @@
   </si>
   <si>
     <t>&lt;/ModelAttachments&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3062,57 +2872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_1" Name="mudtires_angel_1"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_1" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_2" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_3" Name="mudtires_angel_3"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_3" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;
-\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_4_cat745" Name="mudtires_angel_4"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="10000"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="15"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_4" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;Twist
 \t\t\tCenterOfMassOffset="(0; 0; 0)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3188,20 +2947,6 @@
     <t>\t\t\t\t&lt;UiDesc UiDesc="UI_TIRE_MUDTIRES_DESC" UiName="UI_TIRE_MUDTIRES_SUPERHEAVY_CAT770G_DOUBLE_1_NAME" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckTire&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_double_cat_770g" Name="mudtires_2"&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
-\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
-\t\t\t&lt;GameData
-\t\t\t\tPrice="17900"
-\t\t\t\tUnlockByExploration="false"
-\t\t\t\tUnlockByRank="1"
-\t\t\t&gt;
-\t\t\t\t&lt;UiDesc UiDesc="CAT770G F8.0" UiName="CAT770G_DOUBLE_ANGEL" /&gt;
-\t\t\t&lt;/GameData&gt;
-\t\t&lt;/TruckTire&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3830,13 +3575,509 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;TruckTire
+    <t>wheels_scout_apache_1.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_2\classes\trucks\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>chevy_apache.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chevy_apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_us_scout_old, e_us_scout_old_ck1500"</t>
+  </si>
+  <si>
+    <t>增加引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="95"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FuelCapacity="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>8" Scale="0.71" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CenterOfMassOffset="(0.3; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; 0)"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country="RU,CAS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockByObjective="US_06_01_MILL_LOGS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockByObjective=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>isable Unlock</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_double_cat_770g" Name="mudtires_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="17900"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="1"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="CAT770G F8.0" UiName="CAT770G_DOUBLE_ANGEL" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="7400"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel" UiName="SCOUT_BTR_ANGEL" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="offroad_btr_angel_ice"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="7400"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Scout BTR Angel Ice" UiName="SCOUT_BTR_ANGEL_ICE" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="5.0"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Mudtires Tayga F5.0" UiName="ANGEL_MUDTIRES_TAYGA" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Offroad" Mesh="wheels/tire_heavy_mudtires_single_tayga_1" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="13"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Mudtires Tayga F8.0" UiName="ANGEL_2_MUDTIRES_TAYGA" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_tires"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="5.0" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="1"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F5" UiName="YAR_87_ANGEL_TIRES_5" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_scout_mudtires1_2" Name="yar_87_angel_ice_tires"&gt;
+\t\t\t&lt;WheelFriction _template="Mudtires" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="4.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="12000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="1"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="YAR 87 Angel Tires F8" UiName="YAR_87_ANGEL_TIRES_8" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_1" Name="mudtires_angel_1"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_1" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_2" Name="mudtires_angel_2"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_2" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_3" Name="mudtires_angel_3"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_3" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;
+\t\t&lt;TruckTire _template="Mudtires" Mesh="wheels/tire_superheavy_mudtires_4_cat745" Name="mudtires_angel_4"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="8.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelSoftness _template="AngelSoft" /&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="10000"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="15"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel 2 Super Heavy Mudtires F8.0" UiName="ANGEL_MSH_4" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire _template="ScoutChains" Mesh="wheels/tire_scout_mudtires_1" Name="mudtires_super" Width="0.797"&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;GameData
+\t\t\t\tPrice="15100"
+\t\t\t\tUnlockByExploration="false"
+\t\t\t\tUnlockByRank="7"
+\t\t\t&gt;
+\t\t\t\t&lt;UiDesc UiDesc="Angel Tires" UiName="UI_TIRE_SCOUT_MUDTIRES_1_NAME" /&gt;
+\t\t\t&lt;/GameData&gt;
+\t\t&lt;/TruckTire&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\n\t\t&lt;TruckTire
 \t\t\t_template="ScoutChains"
 \t\t\tMesh="wheels/tire_scout_apache_mudtires_1"
 \t\t\tName="super_mudtires_1"
 \t\t\tWidth="0.797"
 \t\t&gt;
-\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.2" BodyFriction="3.0" SubstanceFriction="5.0" IsIgnoreIce="true"/&gt;
+\t\t\t&lt;WheelFriction _template="Chains" BodyFrictionAsphalt="1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" BodyFriction="3.0" SubstanceFriction="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>.0" IsIgnoreIce="true"/&gt;
 \t\t\t&lt;GameData
 \t\t\t\tPrice="15300"
 \t\t\t\tUnlockByExploration="false"
@@ -3845,36 +4086,282 @@
 \t\t\t\t&lt;UiDesc UiDesc="APACHE_SUPER_WHEEL" UiName="UI_APACHE_SUPER_WHEEL" /&gt;
 \t\t\t&lt;/GameData&gt;
 \t\t&lt;/TruckTire&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wheels_scout_apache_1.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_1_2\classes\trucks\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>chevy_apache.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chevy_apache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type="e_us_scout_old, e_us_scout_old_ck1500"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;WheelFriction&gt;
+\t\t&lt;ScoutOffroad
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutHighway
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutChains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutAllterrain
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t\t&lt;Offroad
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;Mudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Highway
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;HeavyMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Chains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;Allterrain
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t&lt;/WheelFriction&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;WheelFriction&gt;
+\t\t&lt;ScoutOffroad
+\t\t\tBodyFriction="2.0"
+\t\t\tBodyFrictionAsphalt="1"
+\t\t\tSubstanceFriction="1.2"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="0.5"
+\t\t\tSubstanceFriction="1.6"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutHighway
+\t\t\tBodyFriction="0.8"
+\t\t\tBodyFrictionAsphalt="2"
+\t\t\tSubstanceFriction="0.2"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutChains
+\t\t\tBodyFriction="2.0"
+\t\t\tBodyFrictionAsphalt="0.9"
+\t\t\tIsIgnoreIce="true"
+\t\t\tSubstanceFriction="1.1"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutAllterrain
+\t\t\tBodyFriction="1"
+\t\t\tBodyFrictionAsphalt="1.0"
+\t\t\tSubstanceFriction="1.0"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t\t&lt;Offroad
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="0.8"
+\t\t\tSubstanceFriction="1.5"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;Mudtires
+\t\t\tBodyFriction="2.0"
+\t\t\tBodyFrictionAsphalt="0.5"
+\t\t\tSubstanceFriction="2.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Highway
+\t\t\tBodyFriction="1.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="0.2"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;HeavyMudtires
+\t\t\tBodyFriction="1.7"
+\t\t\tBodyFrictionAsphalt="0.5"
+\t\t\tSubstanceFriction="3.0"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Chains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="1.2"
+\t\t\tIsIgnoreIce="true"
+\t\t\tSubstanceFriction="1.3"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;Allterrain
+\t\t\tBodyFriction="1.5"
+\t\t\tBodyFrictionAsphalt="1.5"
+\t\t\tSubstanceFriction="1.0"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t&lt;/WheelFriction&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一增加抓地力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;WheelSoftness&gt;
+\t\t&lt;Stiff RadiusOffset="0.02" SoftForceScale="0.32" /&gt;
+\t\t&lt;Soft RadiusOffset="0.03" SoftForceScale="0.12" /&gt;
+\t\t&lt;ScoutStiff RadiusOffset="0.02" SoftForceScale="0.32" /&gt;
+\t\t&lt;ScoutSoft RadiusOffset="0.1" SoftForceScale="0.2" /&gt;
+\t\t&lt;ScoutDefault RadiusOffset="0.025" SoftForceScale="0.24" /&gt;
+\t\t&lt;Average RadiusOffset="0.025" SoftForceScale="0.24" /&gt;
+\t&lt;/WheelSoftness&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\t&lt;WheelSoftness&gt;
+\t\t&lt;Stiff RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;Soft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;ScoutStiff RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;ScoutSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;ScoutDefault RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;Average RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+\t&lt;/WheelSoftness&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一柔軟度並加上 AngelSoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_rover_defender_90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_rover_defender_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_90.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_110.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Uninstalled"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rezvani_hercules_6x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\rezvani_hercules_6x6.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kirovets_k700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kirovets_k7m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k700.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="680"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k7m_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k700_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3899,91 +4386,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="95"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FuelCapacity="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>190</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.18" RearOffsetZ="0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>8" Scale="0.71" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CenterOfMassOffset="(0.3; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>-0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>; 0)"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_single2" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.63" Type="wheels_superheavy_single" /&gt;\n</t>
+    <t>Type="e_ru_kirovets_k700_special, e_ru_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k7m_special, e_ru_special"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3991,7 +4402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4016,6 +4427,16 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -4161,7 +4582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4262,6 +4683,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4544,11 +4974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4588,7 +5018,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4599,362 +5029,368 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
+      <c r="D15" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>350</v>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
@@ -4963,422 +5399,422 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>359</v>
+      <c r="A21" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
+      <c r="D21" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>417</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>409</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>351</v>
+      <c r="A26" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>101</v>
+        <v>325</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>446</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>447</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>359</v>
+      <c r="A30" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>80</v>
+      <c r="D30" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -5387,118 +5823,100 @@
         <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>369</v>
+      <c r="G45" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5509,47 +5927,47 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5560,312 +5978,315 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>6</v>
+        <v>332</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>343</v>
+        <v>157</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="A62" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A63" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5876,50 +6297,47 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5930,47 +6348,50 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5981,144 +6402,144 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="D75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>159</v>
+        <v>361</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A77" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>378</v>
+        <v>200</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6129,275 +6550,272 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="A83" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="27"/>
+      <c r="E87" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F88" s="26"/>
+      <c r="D88" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>397</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>410</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="C89" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27" t="s">
-        <v>415</v>
+      <c r="D89" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C90" s="27" t="s">
+      <c r="A90" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>420</v>
+      <c r="E91" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>261</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A92" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="A93" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -6408,47 +6826,47 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -6459,734 +6877,734 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="A101" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A102" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="D105" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A106" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+      <c r="D109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A110" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="D113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>159</v>
+      <c r="E114" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A115" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B121" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F121" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="G121" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>286</v>
+      <c r="F123" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>287</v>
+        <v>332</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>372</v>
-      </c>
+      <c r="A125" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>365</v>
+      <c r="A126" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>373</v>
+        <v>259</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>378</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="G128" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A129" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>306</v>
+        <v>332</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="A132" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A134" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B135" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>138</v>
+      <c r="E135" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B136" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>314</v>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>42</v>
+        <v>285</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="9" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="5"/>
@@ -7198,47 +7616,47 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>303</v>
+      <c r="E138" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -7249,144 +7667,144 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="A143" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>138</v>
+        <v>332</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A145" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>349</v>
+        <v>332</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -7397,652 +7815,860 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>159</v>
+        <v>293</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>304</v>
+      <c r="E150" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
+      <c r="A151" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>313</v>
+        <v>273</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A153" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>138</v>
+      <c r="E154" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
+      <c r="A156" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="G156" s="34" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>322</v>
+        <v>306</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
+      <c r="A159" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>8</v>
+        <v>306</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C161" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="D161" s="8"/>
+      <c r="E161" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A166" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
+      <c r="B168" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="A169" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F175" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C176" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>159</v>
+        <v>413</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C177" s="29" t="s">
+      <c r="A177" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F177" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>157</v>
+        <v>418</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="29" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F178" s="33" t="s">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G180" s="31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G178" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="C182" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F182" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="G182" s="31" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="C183" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E183" s="31" t="s">
+      <c r="C186" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F183" s="31" t="s">
+      <c r="F186" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>459</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G195" s="31" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="491">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2284,10 +2284,6 @@
   </si>
   <si>
     <t>\t\t&lt;CompatibleWheels Scale=".66" Type="wheels_heavy_single2" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels Scale=".70" Type="wheels_superheavy_single" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4092,88 +4088,6 @@
   <si>
     <t>\t&lt;WheelFriction&gt;
 \t\t&lt;ScoutOffroad
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
-\t\t/&gt;
-\t\t&lt;ScoutMudtires
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;
-\t\t&lt;ScoutHighway
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
-\t\t/&gt;
-\t\t&lt;ScoutChains
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
-\t\t/&gt;
-\t\t&lt;ScoutAllterrain
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
-\t\t/&gt;
-\t\t&lt;Offroad
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
-\t\t/&gt;
-\t\t&lt;Mudtires
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;
-\t\t&lt;Highway
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
-\t\t/&gt;
-\t\t&lt;HeavyMudtires
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
-\t\t/&gt;
-\t\t&lt;Chains
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
-\t\t/&gt;
-\t\t&lt;Allterrain
-\t\t\tBodyFriction="3.0"
-\t\t\tBodyFrictionAsphalt="1.5"
-\t\t\tSubstanceFriction="8.0"
-\t\t\tIsIgnoreIce="true"
-\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
-\t\t/&gt;
-\t&lt;/WheelFriction&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t&lt;WheelFriction&gt;
-\t\t&lt;ScoutOffroad
 \t\t\tBodyFriction="2.0"
 \t\t\tBodyFrictionAsphalt="1"
 \t\t\tSubstanceFriction="1.2"
@@ -4260,141 +4174,397 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>\t&lt;WheelSoftness&gt;
-\t\t&lt;Stiff RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
-\t\t&lt;Soft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
-\t\t&lt;ScoutStiff RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
-\t\t&lt;ScoutSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
-\t\t&lt;ScoutDefault RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
-\t\t&lt;Average RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
+    <t>統一柔軟度並加上 AngelSoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_rover_defender_90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_rover_defender_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_90.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_110.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffLockType="Uninstalled"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rezvani_hercules_6x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\rezvani_hercules_6x6.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kirovets_k700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kirovets_k7m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k700.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+  </si>
+  <si>
+    <t>FuelCapacity="340"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelCapacity="680"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k7m_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k700_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Type="e_us_scout_old, e_us_scout_old_ck1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>, e_us_scout_modern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k700_special, e_ru_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type="e_ru_kirovets_k7m_special, e_ru_special"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;WheelSoftness&gt;
+\t\t&lt;Stiff RadiusOffset="0.02" SoftForceScale="0.32" /&gt;
+\t\t&lt;Soft RadiusOffset="0.03" SoftForceScale="0.12" /&gt;
+\t\t&lt;ScoutStiff RadiusOffset="0.02" SoftForceScale="0.32" /&gt;
+\t\t&lt;ScoutSoft RadiusOffset="0.1" SoftForceScale="0.2" /&gt;
+\t\t&lt;ScoutDefault RadiusOffset="0.05" SoftForceScale="0.2" /&gt;
+\t\t&lt;Average RadiusOffset="0.025" SoftForceScale="0.24" /&gt;
 \t\t&lt;AngelSoft RadiusOffset="0.045" SoftForceScale="0.12" /&gt;
 \t&lt;/WheelSoftness&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一柔軟度並加上 AngelSoft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>land_rover_defender_90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>land_rover_defender_110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="80"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t&lt;WheelFriction&gt;
+\t\t&lt;ScoutOffroad
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutHighway
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutChains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;ScoutAllterrain
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t\t&lt;Offroad
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_OFFROAD_NAME"
+\t\t/&gt;
+\t\t&lt;Mudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Highway
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.5"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_HIGHWAY_NAME"
+\t\t/&gt;
+\t\t&lt;HeavyMudtires
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_MUDTIRES_NAME"
+\t\t/&gt;
+\t\t&lt;Chains
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_CHAINS_NAME"
+\t\t/&gt;
+\t\t&lt;Allterrain
+\t\t\tBodyFriction="3.0"
+\t\t\tBodyFrictionAsphalt="3.0"
+\t\t\tSubstanceFriction="8.0"
+\t\t\tIsIgnoreIce="true"
+\t\t\tUiName="UI_TIRE_TYPE_ALLTERRAIN_NAME"
+\t\t/&gt;
+\t&lt;/WheelFriction&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CompatibleWheels Scale="0.4" Type="wheels_land_rover_defender_90" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n\t\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&lt;CompatibleWheels Scale="0.42" Type="wheels_land_rover_defender_90" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CompatibleWheels Scale="0.39" Type="wheels_land_rover_defender_110" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n\t\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&lt;CompatibleWheels Scale="0.42" Type="wheels_land_rover_defender_110" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\t\t&lt;CompatibleWheels Scale=".70" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.01" Scale="0.72" Type="wheels_extend_kirovets_k7m" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_5\classes\suspensions\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>s_jeep_wrangler.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_90.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_6\classes\trucks\land_rover_defender_110.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiffLockType="Uninstalled"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rezvani_hercules_6x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\rezvani_hercules_6x6.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="80"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kirovets_k700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kirovets_k7m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k700.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="340"</t>
-  </si>
-  <si>
-    <t>FuelCapacity="340"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelCapacity="680"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type="e_ru_kirovets_k7m_special"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type="e_ru_kirovets_k700_special"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Type="e_us_scout_old, e_us_scout_old_ck1500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>, e_us_scout_modern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type="e_ru_kirovets_k700_special, e_ru_special"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Temp\Snowrunner\initial\[media]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type="e_ru_kirovets_k7m_special, e_ru_special"</t>
+    <t>UiName="UI_SUSPENSION_CRAWLER_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_jeep_wrangler.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CompatibleWheels OffsetZ="0.05" Scale="0.46" Type="wheels_scout2" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.6" Type="wheels_extend_kirovets_k7m" /&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n\t&lt;SuspensionSet
+\t\t_template="Ultimate"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="70"
+\t\tName="jeep_wrangler_suspension_crawlerbigfoot"
+\t&gt;
+\t\t&lt;Suspension Damping="0.2" Height="0.5" Strength="0.012" WheelType="front" BrokenSuspensionMax="0.45" SuspensionMin="-0.67" /&gt;
+\t\t&lt;Suspension Damping="0.2" Height="0.55" Strength="0.012" WheelType="rear" BrokenSuspensionMax="0.45" SuspensionMin="-0.67" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="7900"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_CRAWLER_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_CRAWLER_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4402,7 +4572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4427,6 +4597,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -4582,7 +4757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4692,6 +4867,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4974,11 +5152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5207,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -5038,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -5049,7 +5227,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -5069,7 +5247,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -5089,7 +5267,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -5109,7 +5287,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -5129,27 +5307,27 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>453</v>
+        <v>450</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -5158,13 +5336,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>449</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5358,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5203,7 +5381,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -5226,7 +5404,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5249,7 +5427,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>28</v>
@@ -5272,7 +5450,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -5281,7 +5459,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>79</v>
@@ -5295,7 +5473,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -5318,7 +5496,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -5341,7 +5519,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
@@ -5364,7 +5542,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -5387,7 +5565,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -5410,25 +5588,25 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="G21" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5444,7 +5622,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
@@ -5456,7 +5634,7 @@
         <v>54</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
@@ -5467,7 +5645,7 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -5490,7 +5668,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>58</v>
@@ -5502,7 +5680,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -5513,7 +5691,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -5525,7 +5703,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -5536,7 +5714,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>64</v>
@@ -5545,10 +5723,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -5559,7 +5737,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>64</v>
@@ -5582,7 +5760,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>69</v>
@@ -5594,7 +5772,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
@@ -5605,48 +5783,48 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>370</v>
-      </c>
       <c r="G30" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="C31" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>426</v>
-      </c>
       <c r="E31" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5662,7 +5840,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -5696,7 +5874,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>88</v>
@@ -5719,7 +5897,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>92</v>
@@ -5742,7 +5920,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>97</v>
@@ -5765,7 +5943,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>101</v>
@@ -5788,7 +5966,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>106</v>
@@ -5811,7 +5989,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>108</v>
@@ -5833,70 +6011,73 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="C43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="F43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>114</v>
@@ -5905,100 +6086,100 @@
         <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>127</v>
@@ -6007,115 +6188,115 @@
         <v>128</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>150</v>
@@ -6124,200 +6305,200 @@
         <v>115</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B58" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>184</v>
@@ -6326,103 +6507,103 @@
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>191</v>
@@ -6431,36 +6612,33 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,331 +6649,334 @@
         <v>191</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="F76" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="G77" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>400</v>
+        <v>205</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="27" t="s">
-        <v>388</v>
+      <c r="D85" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F85" s="26"/>
+        <v>399</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>389</v>
+      <c r="A86" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="F86" s="26"/>
-      <c r="G86" s="27" t="s">
-        <v>392</v>
+      <c r="G86" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>395</v>
-      </c>
+      <c r="E87" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" s="26"/>
       <c r="G87" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>329</v>
+        <v>389</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27" t="s">
+        <v>393</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>242</v>
+        <v>394</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>214</v>
@@ -6804,49 +6985,49 @@
         <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>218</v>
@@ -6855,126 +7036,126 @@
         <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>223</v>
@@ -6983,72 +7164,72 @@
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>230</v>
@@ -7057,72 +7238,72 @@
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>234</v>
@@ -7131,13 +7312,13 @@
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -7148,129 +7329,126 @@
         <v>234</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E115" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F115" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F114" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="G115" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>247</v>
@@ -7279,219 +7457,222 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>267</v>
+        <v>182</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>270</v>
+        <v>331</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>266</v>
+        <v>373</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B122" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E123" s="18" t="s">
+      <c r="D123" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F123" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>332</v>
+      <c r="A124" s="18" t="s">
+        <v>344</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="F124" s="19" t="s">
+      <c r="D125" s="18"/>
+      <c r="E125" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G125" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="G124" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>287</v>
+        <v>331</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F128" s="8" t="s">
+      <c r="E129" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>264</v>
@@ -7500,18 +7681,18 @@
         <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>264</v>
@@ -7520,72 +7701,72 @@
         <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>283</v>
@@ -7594,49 +7775,49 @@
         <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>276</v>
@@ -7644,50 +7825,50 @@
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>278</v>
@@ -7695,96 +7876,96 @@
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>280</v>
+      <c r="E142" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>281</v>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B144" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="D145" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="E145" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="F145" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G144" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>290</v>
@@ -7793,754 +7974,769 @@
         <v>8</v>
       </c>
       <c r="E147" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="E149" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A150" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>141</v>
+      <c r="E151" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>273</v>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="A153" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>8</v>
+        <v>291</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A155" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="34" t="s">
-        <v>440</v>
+      <c r="A156" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="1" t="s">
+      <c r="D158" s="8"/>
+      <c r="E158" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F158" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="F156" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="G156" s="34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="G158" s="34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>309</v>
+      <c r="C160" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="G163" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E166" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="F169" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F167" s="8" t="s">
+      <c r="E170" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="F170" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="E172" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E173" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F173" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="F171" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="G171" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B172" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="C174" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D174" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E174" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="F174" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="F172" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G172" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F175" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A175" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F176" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>358</v>
+      <c r="F176" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B177" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="A177" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C177" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" s="29" t="s">
-        <v>416</v>
+        <v>433</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G180" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+      <c r="B182" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="B180" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="C180" s="31" t="s">
+      <c r="F182" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G180" s="31" t="s">
+      <c r="E183" s="31" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="B181" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E181" s="31" t="s">
+      <c r="F183" s="31" t="s">
         <v>432</v>
-      </c>
-      <c r="F181" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="A184" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
+      <c r="E185" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>284</v>
+        <v>459</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>459</v>
+        <v>331</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="D187" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="F187" s="37" t="s">
+        <v>482</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8551,16 +8747,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>284</v>
@@ -8570,105 +8766,179 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
+      <c r="A190" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>459</v>
+        <v>331</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C191" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="F191" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G191" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G192" s="31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-    </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A194" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G195" s="31" t="s">
-        <v>431</v>
+      <c r="G196" s="31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G199" s="31" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -367,330 +367,6 @@
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
 \t&lt;/Winch&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="USTruckOldEngine"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="240"
-\t\tDamagedConsumptionModifier="1.9"
-\t\tFuelConsumption="1.5"
-\t\tName="us_truck_old_engine_gmc9500"
-\t\tTorque="280000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="12700"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="GMC9500 Super Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_ENGINE_US_TRUCK_OLD_GMC9500S_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="USTruckModernEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="220"
-\t\tDamagedConsumptionModifier="1.1"
-\t\tEngineResponsiveness="0.3"
-\t\tFuelConsumption="1.5"
-\t\tName="us_truck_modern_engine_super"
-\t\tTorque="620000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="30000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="US Super Modern Truck Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="US_S_M_TRUCK_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="USTruckOldHeavyEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="280"
-\t\tDamagedConsumptionModifier="1.5"
-\t\tEngineResponsiveness="0.2"
-\t\tFuelConsumption="2.0"
-\t\tName="us_super_truck_old_heavy_engine"
-\t\tTorque="420000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.6"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="100000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="US Super Truck Old Heavy Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="US_SUPER_TRUCK_OLD_HEAVY_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="USSpecialEngine"
-\t\tCriticalDamageThreshold="0.5"
-\t\tDamageCapacity="280"
-\t\tDamagedConsumptionModifier="1.5"
-\t\tFuelConsumption="1.5"
-\t\tName="us_special_engine_super"
-\t\tTorque="500000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.7"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="55500"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="US Super Special Truck Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="US_S_S_TRUCK_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="USScoutModernEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="140"
-\t\tDamagedConsumptionModifier="1.4"
-\t\tFuelConsumption="0.3"
-\t\tName="us_scout_modern_engine_super"
-\t\tTorque="160000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t\tMaxDeltaAngVel="0.01"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="16600"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="Super Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="RUSpecialEngine"
-\t\tCriticalDamageThreshold="0.99"
-\t\tDamageCapacity="300"
-\t\tDamagedConsumptionModifier="1.4"
-\t\tEngineResponsiveness="0.2"
-\t\tFuelConsumption="1.0"
-\t\tName="ru_tuz_super_tatarin"
-\t\tTorque="400000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="1.0"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="55500"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="TUZ Super Tatarin Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="TUZ_SUPER_TATARIN_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="RUTruckOldHeavyEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="300"
-\t\tDamagedConsumptionModifier="1.5"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_super_truck_old_heavy_engine"
-\t\tTorque="300000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.6"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="145000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Truck Old Heavy Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="RU_SUPER_TRUCK_OLD_HEAVY_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="RUTruckModernEngine"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="250"
-\t\tDamagedConsumptionModifier="1.1"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_truck_modern_engine_super"
-\t\tTorque="420000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="20000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Modern Truck Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;
-\t&lt;Engine
-\t\t_template="RUTruckModernEngine"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="250"
-\t\tDamagedConsumptionModifier="1.1"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_truck_modern_engine_super2"
-\t\tTorque="620000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="30000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Modern Truck Engine 2"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="RUSpecialEngine"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="300"
-\t\tDamagedConsumptionModifier="1.5"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_special_engine_super"
-\t\tTorque="520000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.7"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="40000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Special Truck Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;
-\t&lt;Engine
-\t\t_template="RUSpecialEngine"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="300"
-\t\tDamagedConsumptionModifier="1.5"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_special_engine_super_2"
-\t\tTorque="920000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.7"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="50000"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Special Truck Engine 2"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE_2"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t&lt;Engine
-\t\t_template="RUScoutModernEngine"
-\t\tCriticalDamageThreshold="0.7"
-\t\tDamageCapacity="170"
-\t\tDamagedConsumptionModifier="1.4"
-\t\tEngineResponsiveness="0.45"
-\t\tFuelConsumption="0.5"
-\t\tName="ru_scout_modern_engine_super"
-\t\tTorque="150000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.8"
-\t\tMaxDeltaAngVel="0.01"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="16600"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU Super Engine"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_ENGINE_RU_SCOUT_MODERN_2_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1392,11 +1068,6 @@
   </si>
   <si>
     <t>\t\t&lt;CompatibleWheels OffsetZ="0.02" Scale="0.62" Type="wheels_scout_yar_87" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.65" Type="wheels_scout_yar_871" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.63" Type="wheels_scout_btr" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3346,51 +3017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>\n\t&lt;Engine
-\t\t_template="RUTruckOldEngine"
-\t\tCriticalDamageThreshold="0.5"
-\t\tDamageCapacity="120"
-\t\tDamagedConsumptionModifier="2.1"
-\t\tFuelConsumption="1.5"
-\t\tName="ru_truck_old_engine_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>"
-\t\tTorque="555000"
-\t\tDamagedMinTorqueMultiplier="1.0"
-\t\tDamagedMaxTorqueMultiplier="0.6"
-\t&gt;
-\t\t&lt;GameData
-\t\t\tPrice="33900"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="RU_TRUCK_OLD_ENGINE_SUPER"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_RU_TRUCK_OLD_ENGINE_SUPER"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/Engine&gt;\n</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\n\t&lt;SuspensionSet
 \t\t_template="Active"
 \t\tBrokenWheelDamageMultiplier="2"
@@ -4529,20 +4155,6 @@
         <color theme="1"/>
         <rFont val="SimSun"/>
       </rPr>
-      <t>n\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.6" Type="wheels_extend_kirovets_k7m" /&gt;\n</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
       <t>n\t&lt;SuspensionSet
 \t\t_template="Ultimate"
 \t\tCriticalDamageThreshold="0.7"
@@ -4567,12 +4179,401 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckOldEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="240"
+\t\tDamagedConsumptionModifier="1.9"
+\t\tFuelConsumption="1.5"
+\t\tName="us_truck_old_engine_gmc9500"
+\t\tTorque="168000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="12700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="GMC9500 Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_TRUCK_OLD_GMC9500S_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="220"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tEngineResponsiveness="0.3"
+\t\tFuelConsumption="1.5"
+\t\tName="us_truck_modern_engine_super"
+\t\tTorque="230400"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="30000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Modern Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USTruckOldHeavyEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="280"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tEngineResponsiveness="0.2"
+\t\tFuelConsumption="2.0"
+\t\tName="us_super_truck_old_heavy_engine"
+\t\tTorque="252000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="100000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Truck Old Heavy Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_SUPER_TRUCK_OLD_HEAVY_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USSpecialEngine"
+\t\tCriticalDamageThreshold="0.5"
+\t\tDamageCapacity="280"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="us_special_engine_super"
+\t\tTorque="300000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="55500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="US Super Special Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="US_S_S_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="USScoutModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="140"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tFuelConsumption="0.3"
+\t\tName="us_scout_modern_engine_super"
+\t\tTorque="125000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t\tMaxDeltaAngVel="0.01"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="16600"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_US_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.99"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tEngineResponsiveness="0.2"
+\t\tFuelConsumption="1.0"
+\t\tName="ru_tuz_super_tatarin"
+\t\tTorque="240000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="1.0"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="55500"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="TUZ Super Tatarin Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="TUZ_SUPER_TATARIN_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUTruckOldHeavyEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_super_truck_old_heavy_engine"
+\t\tTorque="240000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="145000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Truck Old Heavy Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_SUPER_TRUCK_OLD_HEAVY_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUTruckModernEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="250"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_modern_engine_super"
+\t\tTorque="210000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="20000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Modern Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;
+\t&lt;Engine
+\t\t_template="RUTruckModernEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="250"
+\t\tDamagedConsumptionModifier="1.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_modern_engine_super2"
+\t\tTorque="252000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="30000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Modern Truck Engine 2"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_M_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_special_engine_super"
+\t\tTorque="260000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="40000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Special Truck Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;
+\t&lt;Engine
+\t\t_template="RUSpecialEngine"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="300"
+\t\tDamagedConsumptionModifier="1.5"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_special_engine_super_2"
+\t\tTorque="312000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.7"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="50000"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Special Truck Engine 2"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="RU_S_S_TRUCK_ENGINE_2"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUScoutModernEngine"
+\t\tCriticalDamageThreshold="0.7"
+\t\tDamageCapacity="170"
+\t\tDamagedConsumptionModifier="1.4"
+\t\tEngineResponsiveness="0.45"
+\t\tFuelConsumption="0.5"
+\t\tName="ru_scout_modern_engine_super"
+\t\tTorque="108000"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.8"
+\t\tMaxDeltaAngVel="0.01"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="16600"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU Super Engine"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_ENGINE_RU_SCOUT_MODERN_2_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;Engine
+\t\t_template="RUTruckOldEngine"
+\t\tCriticalDamageThreshold="0.5"
+\t\tDamageCapacity="120"
+\t\tDamagedConsumptionModifier="2.1"
+\t\tFuelConsumption="1.5"
+\t\tName="ru_truck_old_engine_4"
+\t\tTorque="203500"
+\t\tDamagedMinTorqueMultiplier="1.0"
+\t\tDamagedMaxTorqueMultiplier="0.6"
+\t&gt;
+\t\t&lt;GameData
+\t\t\tPrice="33900"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="RU_TRUCK_OLD_ENGINE_SUPER"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_RU_TRUCK_OLD_ENGINE_SUPER"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/Engine&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.65" Type="wheels_scout_yar_871" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.6" Type="wheels_extend_kirovets_k7m" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.10" Scale="0.46" Type="wheels_scout_yar_871" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.25" Scale="0.6" Type="wheels_scout_yar_871" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4704,6 +4705,12 @@
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4757,7 +4764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4870,6 +4877,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5155,8 +5165,8 @@
   <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5207,7 +5217,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -5216,7 +5226,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -5227,7 +5237,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -5247,7 +5257,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -5267,7 +5277,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -5276,18 +5286,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -5296,38 +5306,38 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -5336,13 +5346,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5358,7 +5368,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5370,7 +5380,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -5381,7 +5391,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -5393,7 +5403,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
@@ -5404,7 +5414,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5416,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
@@ -5427,7 +5437,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>28</v>
@@ -5439,7 +5449,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>31</v>
@@ -5450,7 +5460,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -5459,10 +5469,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -5473,7 +5483,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -5485,7 +5495,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
@@ -5496,7 +5506,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -5508,7 +5518,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -5519,7 +5529,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
@@ -5531,7 +5541,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
@@ -5542,7 +5552,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -5554,7 +5564,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
@@ -5565,7 +5575,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -5577,7 +5587,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>17</v>
@@ -5588,25 +5598,25 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5622,7 +5632,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
@@ -5634,7 +5644,7 @@
         <v>54</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
@@ -5645,7 +5655,7 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -5657,7 +5667,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>18</v>
@@ -5668,7 +5678,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>58</v>
@@ -5680,7 +5690,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -5691,7 +5701,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -5703,7 +5713,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -5714,7 +5724,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>64</v>
@@ -5723,10 +5733,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -5737,7 +5747,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>64</v>
@@ -5749,7 +5759,7 @@
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -5760,7 +5770,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>69</v>
@@ -5772,7 +5782,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
@@ -5783,48 +5793,48 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5850,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -5852,7 +5862,7 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>18</v>
@@ -5874,168 +5884,168 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -6046,27 +6056,27 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -6077,47 +6087,47 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -6128,47 +6138,47 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6179,113 +6189,113 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -6296,70 +6306,70 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6370,70 +6380,70 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6444,50 +6454,50 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6498,47 +6508,47 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6549,50 +6559,50 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6603,90 +6613,90 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6697,50 +6707,50 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>200</v>
+        <v>489</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -6751,27 +6761,27 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -6782,159 +6792,159 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="27" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -6945,27 +6955,27 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -6976,47 +6986,47 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7027,47 +7037,47 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -7078,73 +7088,73 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -7155,70 +7165,70 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -7229,70 +7239,70 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -7303,90 +7313,90 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -7397,27 +7407,27 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -7428,163 +7438,163 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="29" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -7595,73 +7605,73 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -7672,90 +7682,90 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -7766,47 +7776,47 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -7817,47 +7827,47 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -7868,93 +7878,93 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -7965,70 +7975,70 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C149" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="E149" s="37" t="s">
-        <v>489</v>
+        <v>476</v>
+      </c>
+      <c r="E149" s="38" t="s">
+        <v>490</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -8039,90 +8049,90 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -8133,71 +8143,71 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F158" s="34" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -8208,114 +8218,114 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -8326,50 +8336,50 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -8380,47 +8390,47 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -8431,70 +8441,70 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -8505,113 +8515,113 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C177" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F178" s="33" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8622,47 +8632,47 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G182" s="31" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F183" s="31" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -8673,70 +8683,70 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D187" s="37" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E187" s="37" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F187" s="37" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8747,70 +8757,70 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C191" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D191" s="37" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F191" s="37" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8821,27 +8831,27 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8852,47 +8862,47 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="F195" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G196" s="31" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8903,42 +8913,42 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G199" s="31" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/SnowrunnerChangeAttributes.xlsx
+++ b/SnowrunnerChangeAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="492">
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,31 +568,6 @@
     <t>s_khan_39_marshall.xml</t>
   </si>
   <si>
-    <t>\n\t&lt;SuspensionSet
-\t\t_template="High"
-\t\tBrokenWheelDamageMultiplier="2"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="260"
-\t\tName="azov_64131_suspension_high"
-\t&gt;
-\t\t&lt;Suspension Damping=".4" Height="0.35" Strength="0.06" WheelType="front" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
-\t\t&lt;Suspension Damping=".4" Height="0.43" Strength="0.08" WheelType="rear" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
-\t\t&lt;GameData
-\t\t\tPrice="5700"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_HIGH_DESC"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_SUSPENSION_HIGH_NAME"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E:\Temp\Snowrunner\initial\[media]\classes\suspensions\s_azov_64131.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,13 +1204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_single2" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_superheavy_single" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\t&lt;Wheel&gt;
 \t\t&lt;SecondAxle
 \t\t\tLocation="front"
@@ -1291,11 +1259,6 @@
   </si>
   <si>
     <t>\t\t&lt;CompatibleWheels Scale=".9" Type="wheels_superheavy_single" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_superheavy_single" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_heavy_mudtires_tayga" /&gt;\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2855,12 +2818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
-\t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\n\t\t&lt;AddonSockets&gt;
 \t\t\t&lt;Socket Names="FrameAddon" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt" /&gt;
 \t\t\t&lt;Socket Names="FrameAddonKung" Offset="(-3.86; 1.82; 0)" ParentFrame="BoneChassis_cdt"&gt;
@@ -3023,76 +2980,6 @@
 \t\tCriticalDamageThreshold="0.6"
 \t\tDamageCapacity="230"
 \t\tName="krs58_suspension_active"
-\t\tDeviationDelta=".002"
-\t&gt;
-\t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
-\t\t&lt;Suspension Height="0.15" Strength="0.022" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
-\t\t&lt;GameData
-\t\t\tPrice="11700"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="KOLOB_74941_ACTIVE_SUSPENSION"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t&lt;SuspensionSet
-\t\t_template="Normal"
-\t\tBrokenWheelDamageMultiplier="2"
-\n\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="260"
-\t\tName="pacific_p12w_suspension_soft"
-\t&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.3" Strength="0.04" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.05" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
-\t\t&lt;GameData
-\t\t\tPrice="6200"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_SOFT"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_SUSPENSION_SOFT"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;
-\t&lt;SuspensionSet
-\t\t_template="Normal"
-\t\tBrokenWheelDamageMultiplier="2"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="260"
-\t\tName="pacific_p12w_suspension_tayga"
-\t&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.5" Strength="0.04" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
-\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.05" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
-\t\t&lt;GameData
-\t\t\tPrice="6200"
-\t\t\tUnlockByExploration="false"
-\t\t\tUnlockByRank="1"
-\t\t&gt;
-\t\t\t&lt;UiDesc
-\t\t\t\tUiDesc="UI_SUSPENSION_TAYGA"
-\t\t\t\tUiIcon30x30=""
-\t\t\t\tUiIcon40x40=""
-\t\t\t\tUiName="UI_SUSPENSION_TAYGA"
-\t\t\t/&gt;
-\t\t&lt;/GameData&gt;
-\t&lt;/SuspensionSet&gt;
-\t&lt;SuspensionSet
-\t\t_template="Active"
-\t\tBrokenWheelDamageMultiplier="2"
-\t\tCriticalDamageThreshold="0.6"
-\t\tDamageCapacity="230"
-\t\tName="pacific_p12w_suspension_active"
 \t\tDeviationDelta=".002"
 \t&gt;
 \t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
@@ -4180,6 +4067,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.65" Type="wheels_scout_yar_871" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.6" Type="wheels_extend_kirovets_k7m" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.10" Scale="0.46" Type="wheels_scout_yar_871" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.25" Scale="0.6" Type="wheels_scout_yar_871" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>\n\t&lt;Engine
 \t\t_template="USTruckOldEngine"
 \t\tCriticalDamageThreshold="0.6"
@@ -4187,7 +4110,7 @@
 \t\tDamagedConsumptionModifier="1.9"
 \t\tFuelConsumption="1.5"
 \t\tName="us_truck_old_engine_gmc9500"
-\t\tTorque="168000"
+\t\tTorque="280000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t&gt;
@@ -4215,7 +4138,7 @@
 \t\tEngineResponsiveness="0.3"
 \t\tFuelConsumption="1.5"
 \t\tName="us_truck_modern_engine_super"
-\t\tTorque="230400"
+\t\tTorque="620000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t&gt;
@@ -4243,7 +4166,7 @@
 \t\tEngineResponsiveness="0.2"
 \t\tFuelConsumption="2.0"
 \t\tName="us_super_truck_old_heavy_engine"
-\t\tTorque="252000"
+\t\tTorque="420000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.6"
 \t&gt;
@@ -4270,7 +4193,7 @@
 \t\tDamagedConsumptionModifier="1.5"
 \t\tFuelConsumption="1.5"
 \t\tName="us_special_engine_super"
-\t\tTorque="300000"
+\t\tTorque="500000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.7"
 \t&gt;
@@ -4297,7 +4220,7 @@
 \t\tDamagedConsumptionModifier="1.4"
 \t\tFuelConsumption="0.3"
 \t\tName="us_scout_modern_engine_super"
-\t\tTorque="125000"
+\t\tTorque="160000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t\tMaxDeltaAngVel="0.01"
@@ -4326,7 +4249,7 @@
 \t\tEngineResponsiveness="0.2"
 \t\tFuelConsumption="1.0"
 \t\tName="ru_tuz_super_tatarin"
-\t\tTorque="240000"
+\t\tTorque="400000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="1.0"
 \t&gt;
@@ -4353,7 +4276,7 @@
 \t\tDamagedConsumptionModifier="1.5"
 \t\tFuelConsumption="1.5"
 \t\tName="ru_super_truck_old_heavy_engine"
-\t\tTorque="240000"
+\t\tTorque="300000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.6"
 \t&gt;
@@ -4380,7 +4303,7 @@
 \t\tDamagedConsumptionModifier="1.1"
 \t\tFuelConsumption="1.5"
 \t\tName="ru_truck_modern_engine_super"
-\t\tTorque="210000"
+\t\tTorque="420000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t&gt;
@@ -4404,7 +4327,7 @@
 \t\tDamagedConsumptionModifier="1.1"
 \t\tFuelConsumption="1.5"
 \t\tName="ru_truck_modern_engine_super2"
-\t\tTorque="252000"
+\t\tTorque="620000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t&gt;
@@ -4431,7 +4354,7 @@
 \t\tDamagedConsumptionModifier="1.5"
 \t\tFuelConsumption="1.5"
 \t\tName="ru_special_engine_super"
-\t\tTorque="260000"
+\t\tTorque="520000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.7"
 \t&gt;
@@ -4455,7 +4378,7 @@
 \t\tDamagedConsumptionModifier="1.5"
 \t\tFuelConsumption="1.5"
 \t\tName="ru_special_engine_super_2"
-\t\tTorque="312000"
+\t\tTorque="920000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.7"
 \t&gt;
@@ -4483,7 +4406,7 @@
 \t\tEngineResponsiveness="0.45"
 \t\tFuelConsumption="0.5"
 \t\tName="ru_scout_modern_engine_super"
-\t\tTorque="108000"
+\t\tTorque="150000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.8"
 \t\tMaxDeltaAngVel="0.01"
@@ -4504,14 +4427,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\t&lt;Engine
+    <r>
+      <t>\n\t&lt;Engine
 \t\t_template="RUTruckOldEngine"
 \t\tCriticalDamageThreshold="0.5"
 \t\tDamageCapacity="120"
 \t\tDamagedConsumptionModifier="2.1"
 \t\tFuelConsumption="1.5"
-\t\tName="ru_truck_old_engine_4"
-\t\tTorque="203500"
+\t\tName="ru_truck_old_engine_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>"
+\t\tTorque="555000"
 \t\tDamagedMinTorqueMultiplier="1.0"
 \t\tDamagedMaxTorqueMultiplier="0.6"
 \t&gt;
@@ -4528,15 +4468,62 @@
 \t\t\t/&gt;
 \t\t&lt;/GameData&gt;
 \t&lt;/Engine&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.65" Type="wheels_scout_yar_871" /&gt;\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t&lt;SuspensionSet
+\t\t_template="High"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="azov_64131_suspension_high"
+\t&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.35" Strength="0.025" WheelType="front" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;Suspension Damping=".4" Height="0.43" Strength="0.022" WheelType="rear" BrokenSuspensionMax="10" SuspensionMin="-0.35" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="5700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_HIGH_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_HIGH_NAME"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_single2" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.6" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.66" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.25" Scale="0.66" Type="wheels_extend_kirovets_k7m" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.15" Scale="0.91" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.91" Type="wheels_extend_kirovets_k7m" /&gt;\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\t&lt;SuspensionSet
+\t\t_template="Normal"
+\t\tBrokenWheelDamageMultiplier="2"
+\n\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="pacific_p12w_suspension_soft"
+\t&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.</t>
     </r>
     <r>
       <rPr>
@@ -4545,17 +4532,148 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>\t\t&lt;CompatibleWheels OffsetZ="0.35" Scale="0.6" Type="wheels_extend_kirovets_k7m" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.10" Scale="0.46" Type="wheels_scout_yar_871" /&gt;
-\t\t&lt;CompatibleWheels OffsetZ="0.25" Scale="0.6" Type="wheels_scout_yar_871" /&gt;</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" Strength="0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" Strength="0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6200"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_SOFT"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_SOFT"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;
+\t&lt;SuspensionSet
+\t\t_template="Normal"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="260"
+\t\tName="pacific_p12w_suspension_tayga"
+\t&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.5" Strength="0.04" WheelType="front" BrokenSuspensionMax="0.4" SuspensionMin="-0.6" /&gt;
+\t\t&lt;Suspension Damping="0.8" Height="0.2" Strength="0.05" WheelType="rear" BrokenSuspensionMax="0.5" SuspensionMin="-0.6" /&gt;
+\t\t&lt;GameData
+\t\t\tPrice="6200"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_TAYGA"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="UI_SUSPENSION_TAYGA"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;
+\t&lt;SuspensionSet
+\t\t_template="Active"
+\t\tBrokenWheelDamageMultiplier="2"
+\t\tCriticalDamageThreshold="0.6"
+\t\tDamageCapacity="230"
+\t\tName="pacific_p12w_suspension_active"
+\t\tDeviationDelta=".002"
+\t&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.025" WheelType="front" BrokenSuspensionMax="0.2" SuspensionMin="-0.35" DeviationMax="0.15"/&gt;
+\t\t&lt;Suspension Height="0.15" Strength="0.022" WheelType="rear" BrokenSuspensionMax="0.2" SuspensionMin="-0.25" DeviationMax="0.15"/&gt;
+\t\t&lt;GameData
+\t\t\tPrice="11700"
+\t\t\tUnlockByExploration="false"
+\t\t\tUnlockByRank="1"
+\t\t&gt;
+\t\t\t&lt;UiDesc
+\t\t\t\tUiDesc="UI_SUSPENSION_ACTIVE_DESC"
+\t\t\t\tUiIcon30x30=""
+\t\t\t\tUiIcon40x40=""
+\t\t\t\tUiName="KOLOB_74941_ACTIVE_SUSPENSION"
+\t\t\t/&gt;
+\t\t&lt;/GameData&gt;
+\t&lt;/SuspensionSet&gt;\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>\t\t&lt;CompatibleWheels OffsetZ="0.1" Scale="0.84" Type="wheels_heavy_mudtires_tayga" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0" Scale="0.9" Type="wheels_superheavy_single" /&gt;
+\t\t&lt;CompatibleWheels Scale="0.9" RearOffsetZ="0.1" Type="wheels_superheavy_cat770g_double" /&gt;
+\t\t&lt;CompatibleWheels OffsetZ="0.3" Scale="0.84" Type="wheels_extend_kirovets_k7m" /&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4573,7 +4691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4598,6 +4716,11 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -4764,7 +4887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4880,6 +5003,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5165,8 +5291,8 @@
   <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5343,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -5226,7 +5352,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -5237,7 +5363,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -5257,7 +5383,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -5277,7 +5403,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -5286,18 +5412,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -5306,38 +5432,38 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -5346,13 +5472,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5368,7 +5494,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5380,7 +5506,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -5391,7 +5517,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -5403,7 +5529,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
@@ -5414,7 +5540,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5426,7 +5552,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
@@ -5437,7 +5563,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>28</v>
@@ -5449,7 +5575,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>31</v>
@@ -5460,7 +5586,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -5469,10 +5595,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -5483,7 +5609,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -5495,7 +5621,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
@@ -5506,7 +5632,7 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -5518,7 +5644,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -5529,7 +5655,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
@@ -5541,7 +5667,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
@@ -5552,7 +5678,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -5564,7 +5690,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
@@ -5575,7 +5701,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -5587,7 +5713,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>17</v>
@@ -5598,25 +5724,25 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5758,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
@@ -5644,7 +5770,7 @@
         <v>54</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
@@ -5655,7 +5781,7 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -5678,7 +5804,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>58</v>
@@ -5690,7 +5816,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -5701,7 +5827,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -5713,7 +5839,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -5724,7 +5850,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>64</v>
@@ -5733,10 +5859,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -5747,7 +5873,7 @@
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>64</v>
@@ -5770,7 +5896,7 @@
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>69</v>
@@ -5782,7 +5908,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
@@ -5793,48 +5919,48 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5850,7 +5976,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -5884,7 +6010,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>78</v>
@@ -5907,7 +6033,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>82</v>
@@ -5930,7 +6056,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>87</v>
@@ -5953,10 +6079,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -5965,87 +6091,87 @@
         <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>486</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F41" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="G41" s="37" t="s">
         <v>470</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:d